--- a/BreedsPerPet.xlsx
+++ b/BreedsPerPet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="973" count="6857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="977" count="6863">
   <si>
     <t>SpeciesId</t>
   </si>
@@ -2933,6 +2933,18 @@
   </si>
   <si>
     <t>inv_mace_1h_pandung_c_01</t>
+  </si>
+  <si>
+    <t>Treasure Goblin</t>
+  </si>
+  <si>
+    <t>ability_racial_packhobgoblin</t>
+  </si>
+  <si>
+    <t>Dread Hatchling</t>
+  </si>
+  <si>
+    <t>ability_mount_pandarenphoenix_green</t>
   </si>
 </sst>
 </file>
@@ -3009,7 +3021,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <sheetPr codeName="BreedsPerPet"/>
-  <dimension ref="A1:K2282"/>
+  <dimension ref="A1:K2284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -82934,6 +82946,76 @@
         <v>254</v>
       </c>
     </row>
+    <row r="2284" spans="1:11">
+      <c r="A2284" s="1">
+        <v>1365</v>
+      </c>
+      <c r="B2284" s="3">
+        <v>9</v>
+      </c>
+      <c r="C2284" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2284" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E2284" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="F2284" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2284" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2284" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2284" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2284" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2284" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:11">
+      <c r="A2285" s="1">
+        <v>1386</v>
+      </c>
+      <c r="B2285" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2285" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2285" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E2285" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="F2285" s="0">
+        <v>8.12</v>
+      </c>
+      <c r="G2285" s="0">
+        <v>10.38</v>
+      </c>
+      <c r="H2285" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2285" s="1">
+        <v>1420</v>
+      </c>
+      <c r="J2285" s="1">
+        <v>337</v>
+      </c>
+      <c r="K2285" s="1">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>

--- a/BreedsPerPet.xlsx
+++ b/BreedsPerPet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="977" count="6863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1060" count="7265">
   <si>
     <t>SpeciesId</t>
   </si>
@@ -2945,6 +2945,256 @@
   </si>
   <si>
     <t>ability_mount_pandarenphoenix_green</t>
+  </si>
+  <si>
+    <t>Iron Starlette</t>
+  </si>
+  <si>
+    <t>ability_siege_engineer_detonate</t>
+  </si>
+  <si>
+    <t>Royal Peacock</t>
+  </si>
+  <si>
+    <t>inv_pet_peacock_gold</t>
+  </si>
+  <si>
+    <t>Teroclaw Hatchling</t>
+  </si>
+  <si>
+    <t>Frostfur Rat</t>
+  </si>
+  <si>
+    <t>Zomstrok</t>
+  </si>
+  <si>
+    <t>inv_misc_food_92_lobster</t>
+  </si>
+  <si>
+    <t>Leatherhide Runt</t>
+  </si>
+  <si>
+    <t>Mud Jumper</t>
+  </si>
+  <si>
+    <t>inv_pet_toad_brown</t>
+  </si>
+  <si>
+    <t>Wiesentramplerkalb</t>
+  </si>
+  <si>
+    <t>inv_pet_baby_elekk_green</t>
+  </si>
+  <si>
+    <t>Moonshell Crab</t>
+  </si>
+  <si>
+    <t>Mossbite Skitterer</t>
+  </si>
+  <si>
+    <t>inv_ravager2pet_white</t>
+  </si>
+  <si>
+    <t>Thicket Skitterer</t>
+  </si>
+  <si>
+    <t>Icespine Hatchling</t>
+  </si>
+  <si>
+    <t>inv_ravager2pet_blue</t>
+  </si>
+  <si>
+    <t>Bloodsting Wasp</t>
+  </si>
+  <si>
+    <t>inv_dragonflypet_red</t>
+  </si>
+  <si>
+    <t>Wood Wasp</t>
+  </si>
+  <si>
+    <t>inv_dragonflypet_green</t>
+  </si>
+  <si>
+    <t>Twilight Wasp</t>
+  </si>
+  <si>
+    <t>inv_dragonflypet_blue</t>
+  </si>
+  <si>
+    <t>Amberbarb Wasp</t>
+  </si>
+  <si>
+    <t>inv_dragonflypet_yellow</t>
+  </si>
+  <si>
+    <t>Sky-Bo</t>
+  </si>
+  <si>
+    <t>ability_mount_shreddermount</t>
+  </si>
+  <si>
+    <t>Junglebeak</t>
+  </si>
+  <si>
+    <t>inv_toucan_color4</t>
+  </si>
+  <si>
+    <t>Axebeak Hatchling</t>
+  </si>
+  <si>
+    <t>inv_toucan_color1</t>
+  </si>
+  <si>
+    <t>Syd the Squid</t>
+  </si>
+  <si>
+    <t>inv_misc_fish_102</t>
+  </si>
+  <si>
+    <t>Stonegrinder</t>
+  </si>
+  <si>
+    <t>inv_eng_gizmo3</t>
+  </si>
+  <si>
+    <t>Verfluchte Birmakatze</t>
+  </si>
+  <si>
+    <t>trade_archaeology_catstatueemeraldeyes</t>
+  </si>
+  <si>
+    <t>Schrödingers Katze</t>
+  </si>
+  <si>
+    <t>Netherspawn, Spawn of Netherspawn</t>
+  </si>
+  <si>
+    <t>spell_nature_acid_01</t>
+  </si>
+  <si>
+    <t>Frostwolf Ghostpup</t>
+  </si>
+  <si>
+    <t>inv_jewelry_frostwolftrinket_02</t>
+  </si>
+  <si>
+    <t>Ancient Nest Guardian</t>
+  </si>
+  <si>
+    <t>inv_eng_clockworkegg</t>
+  </si>
+  <si>
+    <t>Ikky</t>
+  </si>
+  <si>
+    <t>inv_feather_01</t>
+  </si>
+  <si>
+    <t>Crimson Spore</t>
+  </si>
+  <si>
+    <t>priest_icon_chakra_red</t>
+  </si>
+  <si>
+    <t>Umbrafen Spore</t>
+  </si>
+  <si>
+    <t>priest_icon_chakra_blue</t>
+  </si>
+  <si>
+    <t>Brilliant Spore</t>
+  </si>
+  <si>
+    <t>Hydraling</t>
+  </si>
+  <si>
+    <t>Stormwing</t>
+  </si>
+  <si>
+    <t>ability_mount_stormcrowmount</t>
+  </si>
+  <si>
+    <t>Bronze Whelpling</t>
+  </si>
+  <si>
+    <t>inv_misc_head_dragon_bronze</t>
+  </si>
+  <si>
+    <t>Doom Bloom</t>
+  </si>
+  <si>
+    <t>inv_misc_herb_dreamingglory</t>
+  </si>
+  <si>
+    <t>
+    </t>
+  </si>
+  <si>
+    <t>inv_eng_metalblingronear</t>
+  </si>
+  <si>
+    <t>inv_pet_peacock_green</t>
+  </si>
+  <si>
+    <t>Brilliant Bloodfeather</t>
+  </si>
+  <si>
+    <t>inv_pet_peacock_blue</t>
+  </si>
+  <si>
+    <t>Golden Dawnfeather</t>
+  </si>
+  <si>
+    <t>Frostshell Pincher</t>
+  </si>
+  <si>
+    <t>Ironclaw Scuttler</t>
+  </si>
+  <si>
+    <t>Zangar Crawler</t>
+  </si>
+  <si>
+    <t>Kelp Scuttler</t>
+  </si>
+  <si>
+    <t>Royal Moth</t>
+  </si>
+  <si>
+    <t>Swamplighter Firefly</t>
+  </si>
+  <si>
+    <t>Waterfly</t>
+  </si>
+  <si>
+    <t>Mudback Calf</t>
+  </si>
+  <si>
+    <t>inv_babyhippo01</t>
+  </si>
+  <si>
+    <t>Flat-Tooth Calf</t>
+  </si>
+  <si>
+    <t>inv_babyhippo01_green</t>
+  </si>
+  <si>
+    <t>Veilwatcher Hatchling</t>
+  </si>
+  <si>
+    <t>Kaliri Hatchling</t>
+  </si>
+  <si>
+    <t>Shadow Sporebat</t>
+  </si>
+  <si>
+    <t>Grommloc</t>
+  </si>
+  <si>
+    <t>inv_grommloc</t>
+  </si>
+  <si>
+    <t>Parched Lizard</t>
   </si>
 </sst>
 </file>
@@ -3021,7 +3271,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <sheetPr codeName="BreedsPerPet"/>
-  <dimension ref="A1:K2284"/>
+  <dimension ref="A1:K2418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -83016,6 +83266,4696 @@
         <v>244</v>
       </c>
     </row>
+    <row r="2286" spans="1:11">
+      <c r="A2286" s="1">
+        <v>1387</v>
+      </c>
+      <c r="B2286" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2286" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2286" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E2286" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="F2286" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2286" s="0">
+        <v>10.50</v>
+      </c>
+      <c r="H2286" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2286" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2286" s="1">
+        <v>341</v>
+      </c>
+      <c r="K2286" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:11">
+      <c r="A2287" s="1">
+        <v>1387</v>
+      </c>
+      <c r="B2287" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2287" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2287" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E2287" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="F2287" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="G2287" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2287" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2287" s="1">
+        <v>1725</v>
+      </c>
+      <c r="J2287" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2287" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:11">
+      <c r="A2288" s="1">
+        <v>1387</v>
+      </c>
+      <c r="B2288" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2288" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2288" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E2288" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="F2288" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2288" s="0">
+        <v>9.40</v>
+      </c>
+      <c r="H2288" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2288" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2288" s="1">
+        <v>305</v>
+      </c>
+      <c r="K2288" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:11">
+      <c r="A2289" s="1">
+        <v>1387</v>
+      </c>
+      <c r="B2289" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2289" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2289" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E2289" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="F2289" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2289" s="0">
+        <v>9.40</v>
+      </c>
+      <c r="H2289" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2289" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2289" s="1">
+        <v>305</v>
+      </c>
+      <c r="K2289" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:11">
+      <c r="A2290" s="1">
+        <v>1387</v>
+      </c>
+      <c r="B2290" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2290" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2290" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E2290" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="F2290" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2290" s="0">
+        <v>9.40</v>
+      </c>
+      <c r="H2290" s="0">
+        <v>7.90</v>
+      </c>
+      <c r="I2290" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2290" s="1">
+        <v>305</v>
+      </c>
+      <c r="K2290" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:11">
+      <c r="A2291" s="1">
+        <v>1411</v>
+      </c>
+      <c r="B2291" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2291" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2291" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E2291" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="F2291" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2291" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2291" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2291" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2291" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2291" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:11">
+      <c r="A2292" s="1">
+        <v>1416</v>
+      </c>
+      <c r="B2292" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2292" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2292" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E2292" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2292" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2292" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2292" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2292" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2292" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2292" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:11">
+      <c r="A2293" s="1">
+        <v>1427</v>
+      </c>
+      <c r="B2293" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2293" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2293" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E2293" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2293" s="0">
+        <v>8.12</v>
+      </c>
+      <c r="G2293" s="0">
+        <v>8.38</v>
+      </c>
+      <c r="H2293" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="I2293" s="1">
+        <v>1420</v>
+      </c>
+      <c r="J2293" s="1">
+        <v>272</v>
+      </c>
+      <c r="K2293" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:11">
+      <c r="A2294" s="1">
+        <v>1427</v>
+      </c>
+      <c r="B2294" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2294" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2294" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E2294" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2294" s="0">
+        <v>7.62</v>
+      </c>
+      <c r="G2294" s="0">
+        <v>9.88</v>
+      </c>
+      <c r="H2294" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2294" s="1">
+        <v>1339</v>
+      </c>
+      <c r="J2294" s="1">
+        <v>321</v>
+      </c>
+      <c r="K2294" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:11">
+      <c r="A2295" s="1">
+        <v>1427</v>
+      </c>
+      <c r="B2295" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2295" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2295" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E2295" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2295" s="0">
+        <v>7.62</v>
+      </c>
+      <c r="G2295" s="0">
+        <v>7.88</v>
+      </c>
+      <c r="H2295" s="0">
+        <v>10.50</v>
+      </c>
+      <c r="I2295" s="1">
+        <v>1339</v>
+      </c>
+      <c r="J2295" s="1">
+        <v>256</v>
+      </c>
+      <c r="K2295" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:11">
+      <c r="A2296" s="1">
+        <v>1427</v>
+      </c>
+      <c r="B2296" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2296" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2296" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E2296" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2296" s="0">
+        <v>9.62</v>
+      </c>
+      <c r="G2296" s="0">
+        <v>7.88</v>
+      </c>
+      <c r="H2296" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2296" s="1">
+        <v>1664</v>
+      </c>
+      <c r="J2296" s="1">
+        <v>256</v>
+      </c>
+      <c r="K2296" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:11">
+      <c r="A2297" s="1">
+        <v>1427</v>
+      </c>
+      <c r="B2297" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2297" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2297" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E2297" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2297" s="0">
+        <v>8.52</v>
+      </c>
+      <c r="G2297" s="0">
+        <v>8.77</v>
+      </c>
+      <c r="H2297" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2297" s="1">
+        <v>1485</v>
+      </c>
+      <c r="J2297" s="1">
+        <v>285</v>
+      </c>
+      <c r="K2297" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:11">
+      <c r="A2298" s="1">
+        <v>1427</v>
+      </c>
+      <c r="B2298" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2298" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2298" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E2298" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2298" s="0">
+        <v>7.62</v>
+      </c>
+      <c r="G2298" s="0">
+        <v>8.77</v>
+      </c>
+      <c r="H2298" s="0">
+        <v>9.40</v>
+      </c>
+      <c r="I2298" s="1">
+        <v>1339</v>
+      </c>
+      <c r="J2298" s="1">
+        <v>285</v>
+      </c>
+      <c r="K2298" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:11">
+      <c r="A2299" s="1">
+        <v>1427</v>
+      </c>
+      <c r="B2299" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2299" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2299" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E2299" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2299" s="0">
+        <v>8.52</v>
+      </c>
+      <c r="G2299" s="0">
+        <v>8.28</v>
+      </c>
+      <c r="H2299" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2299" s="1">
+        <v>1485</v>
+      </c>
+      <c r="J2299" s="1">
+        <v>269</v>
+      </c>
+      <c r="K2299" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:11">
+      <c r="A2300" s="1">
+        <v>1428</v>
+      </c>
+      <c r="B2300" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2300" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2300" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E2300" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="F2300" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2300" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2300" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2300" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2300" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2300" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:11">
+      <c r="A2301" s="1">
+        <v>1435</v>
+      </c>
+      <c r="B2301" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2301" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2301" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E2301" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F2301" s="0">
+        <v>9.50</v>
+      </c>
+      <c r="G2301" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="H2301" s="0">
+        <v>7.00</v>
+      </c>
+      <c r="I2301" s="1">
+        <v>1644</v>
+      </c>
+      <c r="J2301" s="1">
+        <v>293</v>
+      </c>
+      <c r="K2301" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:11">
+      <c r="A2302" s="1">
+        <v>1435</v>
+      </c>
+      <c r="B2302" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2302" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2302" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E2302" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F2302" s="0">
+        <v>11.00</v>
+      </c>
+      <c r="G2302" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2302" s="0">
+        <v>6.50</v>
+      </c>
+      <c r="I2302" s="1">
+        <v>1888</v>
+      </c>
+      <c r="J2302" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2302" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:11">
+      <c r="A2303" s="1">
+        <v>1441</v>
+      </c>
+      <c r="B2303" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2303" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2303" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E2303" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F2303" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="G2303" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2303" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2303" s="1">
+        <v>1563</v>
+      </c>
+      <c r="J2303" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2303" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:11">
+      <c r="A2304" s="1">
+        <v>1441</v>
+      </c>
+      <c r="B2304" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2304" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2304" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E2304" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F2304" s="0">
+        <v>9.40</v>
+      </c>
+      <c r="G2304" s="0">
+        <v>7.90</v>
+      </c>
+      <c r="H2304" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2304" s="1">
+        <v>1628</v>
+      </c>
+      <c r="J2304" s="1">
+        <v>257</v>
+      </c>
+      <c r="K2304" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:11">
+      <c r="A2305" s="1">
+        <v>1446</v>
+      </c>
+      <c r="B2305" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2305" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2305" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E2305" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="F2305" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2305" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2305" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2305" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2305" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2305" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:11">
+      <c r="A2306" s="1">
+        <v>1447</v>
+      </c>
+      <c r="B2306" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2306" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2306" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E2306" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F2306" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2306" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="H2306" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2306" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2306" s="1">
+        <v>325</v>
+      </c>
+      <c r="K2306" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:11">
+      <c r="A2307" s="1">
+        <v>1447</v>
+      </c>
+      <c r="B2307" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2307" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2307" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E2307" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F2307" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="G2307" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2307" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2307" s="1">
+        <v>1725</v>
+      </c>
+      <c r="J2307" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2307" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:11">
+      <c r="A2308" s="1">
+        <v>1447</v>
+      </c>
+      <c r="B2308" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2308" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2308" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E2308" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F2308" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2308" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2308" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2308" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2308" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2308" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:11">
+      <c r="A2309" s="1">
+        <v>1447</v>
+      </c>
+      <c r="B2309" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2309" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2309" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E2309" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F2309" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2309" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2309" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2309" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2309" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2309" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:11">
+      <c r="A2310" s="1">
+        <v>1455</v>
+      </c>
+      <c r="B2310" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2310" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2310" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E2310" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F2310" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2310" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2310" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2310" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2310" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2310" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:11">
+      <c r="A2311" s="1">
+        <v>1455</v>
+      </c>
+      <c r="B2311" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2311" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2311" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E2311" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F2311" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2311" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2311" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2311" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2311" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2311" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:11">
+      <c r="A2312" s="1">
+        <v>1455</v>
+      </c>
+      <c r="B2312" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2312" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2312" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E2312" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F2312" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2312" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2312" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2312" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2312" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2312" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:11">
+      <c r="A2313" s="1">
+        <v>1455</v>
+      </c>
+      <c r="B2313" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2313" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2313" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E2313" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F2313" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2313" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2313" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2313" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2313" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2313" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:11">
+      <c r="A2314" s="1">
+        <v>1456</v>
+      </c>
+      <c r="B2314" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2314" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2314" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E2314" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F2314" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2314" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2314" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2314" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2314" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2314" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:11">
+      <c r="A2315" s="1">
+        <v>1456</v>
+      </c>
+      <c r="B2315" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2315" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2315" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E2315" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F2315" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2315" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2315" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2315" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2315" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2315" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:11">
+      <c r="A2316" s="1">
+        <v>1456</v>
+      </c>
+      <c r="B2316" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2316" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2316" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E2316" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F2316" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2316" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2316" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2316" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2316" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2316" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:11">
+      <c r="A2317" s="1">
+        <v>1456</v>
+      </c>
+      <c r="B2317" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2317" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2317" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E2317" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F2317" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2317" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2317" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2317" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2317" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2317" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:11">
+      <c r="A2318" s="1">
+        <v>1457</v>
+      </c>
+      <c r="B2318" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2318" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2318" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E2318" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="F2318" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2318" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2318" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2318" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2318" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2318" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:11">
+      <c r="A2319" s="1">
+        <v>1457</v>
+      </c>
+      <c r="B2319" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2319" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2319" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E2319" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="F2319" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2319" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2319" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2319" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2319" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2319" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:11">
+      <c r="A2320" s="1">
+        <v>1457</v>
+      </c>
+      <c r="B2320" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2320" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2320" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E2320" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="F2320" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2320" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2320" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2320" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2320" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2320" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:11">
+      <c r="A2321" s="1">
+        <v>1457</v>
+      </c>
+      <c r="B2321" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2321" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2321" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E2321" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="F2321" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2321" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2321" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2321" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2321" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2321" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:11">
+      <c r="A2322" s="1">
+        <v>1462</v>
+      </c>
+      <c r="B2322" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2322" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2322" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E2322" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="F2322" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2322" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2322" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2322" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2322" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2322" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:11">
+      <c r="A2323" s="1">
+        <v>1462</v>
+      </c>
+      <c r="B2323" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2323" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2323" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E2323" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="F2323" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2323" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2323" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2323" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2323" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2323" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:11">
+      <c r="A2324" s="1">
+        <v>1462</v>
+      </c>
+      <c r="B2324" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2324" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2324" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E2324" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="F2324" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2324" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2324" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2324" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2324" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2324" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:11">
+      <c r="A2325" s="1">
+        <v>1462</v>
+      </c>
+      <c r="B2325" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2325" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2325" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E2325" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="F2325" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2325" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2325" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2325" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2325" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2325" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:11">
+      <c r="A2326" s="1">
+        <v>1463</v>
+      </c>
+      <c r="B2326" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2326" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2326" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E2326" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F2326" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2326" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2326" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2326" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2326" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2326" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:11">
+      <c r="A2327" s="1">
+        <v>1463</v>
+      </c>
+      <c r="B2327" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2327" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2327" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E2327" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F2327" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2327" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2327" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2327" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2327" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2327" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:11">
+      <c r="A2328" s="1">
+        <v>1463</v>
+      </c>
+      <c r="B2328" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2328" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2328" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E2328" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F2328" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2328" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2328" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2328" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2328" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2328" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:11">
+      <c r="A2329" s="1">
+        <v>1463</v>
+      </c>
+      <c r="B2329" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2329" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2329" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E2329" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F2329" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2329" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2329" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2329" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2329" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2329" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:11">
+      <c r="A2330" s="1">
+        <v>1464</v>
+      </c>
+      <c r="B2330" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2330" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2330" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2330" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F2330" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2330" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2330" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2330" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2330" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2330" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:11">
+      <c r="A2331" s="1">
+        <v>1464</v>
+      </c>
+      <c r="B2331" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2331" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2331" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2331" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F2331" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2331" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2331" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2331" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2331" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2331" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:11">
+      <c r="A2332" s="1">
+        <v>1464</v>
+      </c>
+      <c r="B2332" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2332" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2332" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2332" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F2332" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2332" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2332" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2332" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2332" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2332" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:11">
+      <c r="A2333" s="1">
+        <v>1464</v>
+      </c>
+      <c r="B2333" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2333" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2333" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2333" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F2333" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2333" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2333" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2333" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2333" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2333" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:11">
+      <c r="A2334" s="1">
+        <v>1465</v>
+      </c>
+      <c r="B2334" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2334" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2334" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E2334" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F2334" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2334" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2334" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2334" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2334" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2334" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:11">
+      <c r="A2335" s="1">
+        <v>1465</v>
+      </c>
+      <c r="B2335" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2335" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2335" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E2335" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F2335" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2335" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2335" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2335" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2335" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2335" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:11">
+      <c r="A2336" s="1">
+        <v>1465</v>
+      </c>
+      <c r="B2336" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2336" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2336" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E2336" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F2336" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2336" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2336" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2336" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2336" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2336" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:11">
+      <c r="A2337" s="1">
+        <v>1465</v>
+      </c>
+      <c r="B2337" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2337" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2337" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E2337" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F2337" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2337" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2337" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2337" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2337" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2337" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:11">
+      <c r="A2338" s="1">
+        <v>1467</v>
+      </c>
+      <c r="B2338" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2338" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2338" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E2338" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F2338" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2338" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="H2338" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2338" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2338" s="1">
+        <v>325</v>
+      </c>
+      <c r="K2338" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:11">
+      <c r="A2339" s="1">
+        <v>1467</v>
+      </c>
+      <c r="B2339" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2339" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2339" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E2339" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F2339" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2339" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2339" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="I2339" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2339" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2339" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:11">
+      <c r="A2340" s="1">
+        <v>1469</v>
+      </c>
+      <c r="B2340" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2340" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2340" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E2340" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F2340" s="0">
+        <v>8.12</v>
+      </c>
+      <c r="G2340" s="0">
+        <v>8.75</v>
+      </c>
+      <c r="H2340" s="0">
+        <v>8.62</v>
+      </c>
+      <c r="I2340" s="1">
+        <v>1420</v>
+      </c>
+      <c r="J2340" s="1">
+        <v>284</v>
+      </c>
+      <c r="K2340" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:11">
+      <c r="A2341" s="1">
+        <v>1469</v>
+      </c>
+      <c r="B2341" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2341" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2341" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E2341" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F2341" s="0">
+        <v>7.62</v>
+      </c>
+      <c r="G2341" s="0">
+        <v>10.25</v>
+      </c>
+      <c r="H2341" s="0">
+        <v>8.12</v>
+      </c>
+      <c r="I2341" s="1">
+        <v>1339</v>
+      </c>
+      <c r="J2341" s="1">
+        <v>333</v>
+      </c>
+      <c r="K2341" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:11">
+      <c r="A2342" s="1">
+        <v>1469</v>
+      </c>
+      <c r="B2342" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2342" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2342" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E2342" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F2342" s="0">
+        <v>8.52</v>
+      </c>
+      <c r="G2342" s="0">
+        <v>9.15</v>
+      </c>
+      <c r="H2342" s="0">
+        <v>8.12</v>
+      </c>
+      <c r="I2342" s="1">
+        <v>1485</v>
+      </c>
+      <c r="J2342" s="1">
+        <v>297</v>
+      </c>
+      <c r="K2342" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:11">
+      <c r="A2343" s="1">
+        <v>1469</v>
+      </c>
+      <c r="B2343" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2343" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2343" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E2343" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F2343" s="0">
+        <v>8.03</v>
+      </c>
+      <c r="G2343" s="0">
+        <v>9.15</v>
+      </c>
+      <c r="H2343" s="0">
+        <v>8.53</v>
+      </c>
+      <c r="I2343" s="1">
+        <v>1404</v>
+      </c>
+      <c r="J2343" s="1">
+        <v>297</v>
+      </c>
+      <c r="K2343" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:11">
+      <c r="A2344" s="1">
+        <v>1469</v>
+      </c>
+      <c r="B2344" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2344" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2344" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E2344" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F2344" s="0">
+        <v>8.52</v>
+      </c>
+      <c r="G2344" s="0">
+        <v>8.65</v>
+      </c>
+      <c r="H2344" s="0">
+        <v>8.53</v>
+      </c>
+      <c r="I2344" s="1">
+        <v>1485</v>
+      </c>
+      <c r="J2344" s="1">
+        <v>281</v>
+      </c>
+      <c r="K2344" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:11">
+      <c r="A2345" s="1">
+        <v>1470</v>
+      </c>
+      <c r="B2345" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2345" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2345" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E2345" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F2345" s="0">
+        <v>8.12</v>
+      </c>
+      <c r="G2345" s="0">
+        <v>8.75</v>
+      </c>
+      <c r="H2345" s="0">
+        <v>8.62</v>
+      </c>
+      <c r="I2345" s="1">
+        <v>1420</v>
+      </c>
+      <c r="J2345" s="1">
+        <v>284</v>
+      </c>
+      <c r="K2345" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:11">
+      <c r="A2346" s="1">
+        <v>1470</v>
+      </c>
+      <c r="B2346" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2346" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2346" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E2346" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F2346" s="0">
+        <v>7.62</v>
+      </c>
+      <c r="G2346" s="0">
+        <v>10.25</v>
+      </c>
+      <c r="H2346" s="0">
+        <v>8.12</v>
+      </c>
+      <c r="I2346" s="1">
+        <v>1339</v>
+      </c>
+      <c r="J2346" s="1">
+        <v>333</v>
+      </c>
+      <c r="K2346" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:11">
+      <c r="A2347" s="1">
+        <v>1470</v>
+      </c>
+      <c r="B2347" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2347" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2347" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E2347" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F2347" s="0">
+        <v>8.52</v>
+      </c>
+      <c r="G2347" s="0">
+        <v>9.15</v>
+      </c>
+      <c r="H2347" s="0">
+        <v>8.12</v>
+      </c>
+      <c r="I2347" s="1">
+        <v>1485</v>
+      </c>
+      <c r="J2347" s="1">
+        <v>297</v>
+      </c>
+      <c r="K2347" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:11">
+      <c r="A2348" s="1">
+        <v>1470</v>
+      </c>
+      <c r="B2348" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2348" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2348" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E2348" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F2348" s="0">
+        <v>8.03</v>
+      </c>
+      <c r="G2348" s="0">
+        <v>9.15</v>
+      </c>
+      <c r="H2348" s="0">
+        <v>8.52</v>
+      </c>
+      <c r="I2348" s="1">
+        <v>1404</v>
+      </c>
+      <c r="J2348" s="1">
+        <v>297</v>
+      </c>
+      <c r="K2348" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:11">
+      <c r="A2349" s="1">
+        <v>1470</v>
+      </c>
+      <c r="B2349" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2349" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2349" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E2349" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F2349" s="0">
+        <v>8.52</v>
+      </c>
+      <c r="G2349" s="0">
+        <v>8.65</v>
+      </c>
+      <c r="H2349" s="0">
+        <v>8.52</v>
+      </c>
+      <c r="I2349" s="1">
+        <v>1485</v>
+      </c>
+      <c r="J2349" s="1">
+        <v>281</v>
+      </c>
+      <c r="K2349" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:11">
+      <c r="A2350" s="1">
+        <v>1478</v>
+      </c>
+      <c r="B2350" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2350" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2350" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E2350" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F2350" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2350" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2350" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2350" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2350" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2350" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:11">
+      <c r="A2351" s="1">
+        <v>1515</v>
+      </c>
+      <c r="B2351" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2351" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2351" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E2351" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F2351" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2351" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2351" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2351" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2351" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2351" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:11">
+      <c r="A2352" s="1">
+        <v>1521</v>
+      </c>
+      <c r="B2352" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2352" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2352" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E2352" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F2352" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2352" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2352" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2352" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2352" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2352" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:11">
+      <c r="A2353" s="1">
+        <v>1523</v>
+      </c>
+      <c r="B2353" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2353" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2353" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E2353" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2353" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2353" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2353" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="I2353" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2353" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2353" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:11">
+      <c r="A2354" s="1">
+        <v>1524</v>
+      </c>
+      <c r="B2354" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2354" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2354" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E2354" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F2354" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2354" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2354" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2354" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2354" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2354" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:11">
+      <c r="A2355" s="1">
+        <v>1524</v>
+      </c>
+      <c r="B2355" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2355" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2355" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E2355" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F2355" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2355" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2355" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2355" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2355" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2355" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:11">
+      <c r="A2356" s="1">
+        <v>1530</v>
+      </c>
+      <c r="B2356" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2356" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2356" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E2356" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F2356" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2356" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="H2356" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2356" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2356" s="1">
+        <v>325</v>
+      </c>
+      <c r="K2356" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:11">
+      <c r="A2357" s="1">
+        <v>1531</v>
+      </c>
+      <c r="B2357" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2357" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2357" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E2357" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F2357" s="0">
+        <v>9.40</v>
+      </c>
+      <c r="G2357" s="0">
+        <v>7.90</v>
+      </c>
+      <c r="H2357" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2357" s="1">
+        <v>1628</v>
+      </c>
+      <c r="J2357" s="1">
+        <v>257</v>
+      </c>
+      <c r="K2357" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:11">
+      <c r="A2358" s="1">
+        <v>1532</v>
+      </c>
+      <c r="B2358" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2358" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2358" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E2358" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F2358" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2358" s="0">
+        <v>9.90</v>
+      </c>
+      <c r="H2358" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2358" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2358" s="1">
+        <v>322</v>
+      </c>
+      <c r="K2358" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:11">
+      <c r="A2359" s="1">
+        <v>1532</v>
+      </c>
+      <c r="B2359" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2359" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2359" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E2359" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F2359" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2359" s="0">
+        <v>9.90</v>
+      </c>
+      <c r="H2359" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2359" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2359" s="1">
+        <v>322</v>
+      </c>
+      <c r="K2359" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:11">
+      <c r="A2360" s="1">
+        <v>1537</v>
+      </c>
+      <c r="B2360" s="3">
+        <v>6</v>
+      </c>
+      <c r="C2360" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2360" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E2360" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F2360" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="G2360" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2360" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2360" s="1">
+        <v>1725</v>
+      </c>
+      <c r="J2360" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2360" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:11">
+      <c r="A2361" s="1">
+        <v>1538</v>
+      </c>
+      <c r="B2361" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2361" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2361" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E2361" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F2361" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2361" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2361" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="I2361" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2361" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2361" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:11">
+      <c r="A2362" s="1">
+        <v>1540</v>
+      </c>
+      <c r="B2362" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2362" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2362" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E2362" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F2362" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2362" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2362" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2362" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2362" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2362" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:11">
+      <c r="A2363" s="1">
+        <v>1541</v>
+      </c>
+      <c r="B2363" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2363" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2363" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E2363" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="F2363" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2363" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2363" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2363" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2363" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2363" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:11">
+      <c r="A2364" s="1">
+        <v>1546</v>
+      </c>
+      <c r="B2364" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2364" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2364" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E2364" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F2364" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2364" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2364" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2364" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2364" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2364" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:11">
+      <c r="A2365" s="1">
+        <v>1563</v>
+      </c>
+      <c r="B2365" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2365" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2365" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E2365" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F2365" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2365" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="H2365" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2365" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2365" s="1">
+        <v>325</v>
+      </c>
+      <c r="K2365" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:11">
+      <c r="A2366" s="1">
+        <v>1563</v>
+      </c>
+      <c r="B2366" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2366" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2366" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E2366" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F2366" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2366" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2366" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="I2366" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2366" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2366" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:11">
+      <c r="A2367" s="1">
+        <v>1563</v>
+      </c>
+      <c r="B2367" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2367" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2367" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E2367" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F2367" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2367" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2367" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2367" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2367" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2367" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:11">
+      <c r="A2368" s="1">
+        <v>1563</v>
+      </c>
+      <c r="B2368" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2368" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2368" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E2368" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F2368" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2368" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2368" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2368" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2368" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2368" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:11">
+      <c r="A2369" s="1">
+        <v>1564</v>
+      </c>
+      <c r="B2369" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2369" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2369" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E2369" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F2369" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2369" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2369" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2369" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2369" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2369" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:11">
+      <c r="A2370" s="1">
+        <v>1565</v>
+      </c>
+      <c r="B2370" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2370" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2370" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E2370" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F2370" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2370" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2370" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2370" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2370" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2370" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:11">
+      <c r="A2371" s="1">
+        <v>1566</v>
+      </c>
+      <c r="B2371" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2371" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2371" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E2371" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F2371" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2371" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2371" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="I2371" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2371" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2371" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:11">
+      <c r="A2372" s="1">
+        <v>1572</v>
+      </c>
+      <c r="B2372" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2372" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2372" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E2372" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F2372" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2372" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2372" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2372" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2372" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2372" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:11">
+      <c r="A2373" s="1">
+        <v>1572</v>
+      </c>
+      <c r="B2373" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2373" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2373" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E2373" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F2373" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2373" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="H2373" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2373" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2373" s="1">
+        <v>325</v>
+      </c>
+      <c r="K2373" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:11">
+      <c r="A2374" s="1">
+        <v>1572</v>
+      </c>
+      <c r="B2374" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2374" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2374" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E2374" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F2374" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2374" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2374" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="I2374" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2374" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2374" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:11">
+      <c r="A2375" s="1">
+        <v>1572</v>
+      </c>
+      <c r="B2375" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2375" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2375" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E2375" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F2375" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2375" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2375" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2375" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2375" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2375" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:11">
+      <c r="A2376" s="1">
+        <v>1572</v>
+      </c>
+      <c r="B2376" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2376" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2376" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E2376" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F2376" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2376" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2376" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2376" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2376" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2376" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:11">
+      <c r="A2377" s="1">
+        <v>1573</v>
+      </c>
+      <c r="B2377" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2377" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2377" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E2377" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F2377" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2377" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2377" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2377" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2377" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2377" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:11">
+      <c r="A2378" s="1">
+        <v>1573</v>
+      </c>
+      <c r="B2378" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2378" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2378" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E2378" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F2378" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2378" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="H2378" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2378" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2378" s="1">
+        <v>325</v>
+      </c>
+      <c r="K2378" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:11">
+      <c r="A2379" s="1">
+        <v>1573</v>
+      </c>
+      <c r="B2379" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2379" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2379" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E2379" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F2379" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2379" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2379" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="I2379" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2379" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2379" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:11">
+      <c r="A2380" s="1">
+        <v>1573</v>
+      </c>
+      <c r="B2380" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2380" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2380" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E2380" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F2380" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2380" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2380" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2380" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2380" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2380" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:11">
+      <c r="A2381" s="1">
+        <v>1573</v>
+      </c>
+      <c r="B2381" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2381" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2381" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E2381" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F2381" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2381" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2381" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2381" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2381" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2381" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:11">
+      <c r="A2382" s="1">
+        <v>1578</v>
+      </c>
+      <c r="B2382" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2382" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2382" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E2382" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2382" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2382" s="0">
+        <v>11.00</v>
+      </c>
+      <c r="H2382" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2382" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2382" s="1">
+        <v>358</v>
+      </c>
+      <c r="K2382" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:11">
+      <c r="A2383" s="1">
+        <v>1578</v>
+      </c>
+      <c r="B2383" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2383" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2383" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E2383" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2383" s="0">
+        <v>9.50</v>
+      </c>
+      <c r="G2383" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="H2383" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2383" s="1">
+        <v>1644</v>
+      </c>
+      <c r="J2383" s="1">
+        <v>293</v>
+      </c>
+      <c r="K2383" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:11">
+      <c r="A2384" s="1">
+        <v>1579</v>
+      </c>
+      <c r="B2384" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2384" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2384" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E2384" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2384" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2384" s="0">
+        <v>11.00</v>
+      </c>
+      <c r="H2384" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2384" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2384" s="1">
+        <v>358</v>
+      </c>
+      <c r="K2384" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:11">
+      <c r="A2385" s="1">
+        <v>1579</v>
+      </c>
+      <c r="B2385" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2385" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2385" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E2385" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2385" s="0">
+        <v>9.50</v>
+      </c>
+      <c r="G2385" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="H2385" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2385" s="1">
+        <v>1644</v>
+      </c>
+      <c r="J2385" s="1">
+        <v>293</v>
+      </c>
+      <c r="K2385" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:11">
+      <c r="A2386" s="1">
+        <v>1582</v>
+      </c>
+      <c r="B2386" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2386" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2386" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E2386" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2386" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2386" s="0">
+        <v>11.00</v>
+      </c>
+      <c r="H2386" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2386" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2386" s="1">
+        <v>358</v>
+      </c>
+      <c r="K2386" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:11">
+      <c r="A2387" s="1">
+        <v>1582</v>
+      </c>
+      <c r="B2387" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2387" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2387" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E2387" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2387" s="0">
+        <v>9.50</v>
+      </c>
+      <c r="G2387" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="H2387" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2387" s="1">
+        <v>1644</v>
+      </c>
+      <c r="J2387" s="1">
+        <v>293</v>
+      </c>
+      <c r="K2387" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:11">
+      <c r="A2388" s="1">
+        <v>1583</v>
+      </c>
+      <c r="B2388" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2388" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2388" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E2388" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2388" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2388" s="0">
+        <v>11.00</v>
+      </c>
+      <c r="H2388" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2388" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2388" s="1">
+        <v>358</v>
+      </c>
+      <c r="K2388" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:11">
+      <c r="A2389" s="1">
+        <v>1583</v>
+      </c>
+      <c r="B2389" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2389" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2389" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E2389" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2389" s="0">
+        <v>9.50</v>
+      </c>
+      <c r="G2389" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="H2389" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2389" s="1">
+        <v>1644</v>
+      </c>
+      <c r="J2389" s="1">
+        <v>293</v>
+      </c>
+      <c r="K2389" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:11">
+      <c r="A2390" s="1">
+        <v>1587</v>
+      </c>
+      <c r="B2390" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2390" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2390" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E2390" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2390" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2390" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2390" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2390" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2390" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2390" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:11">
+      <c r="A2391" s="1">
+        <v>1587</v>
+      </c>
+      <c r="B2391" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2391" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2391" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E2391" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2391" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2391" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2391" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2391" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2391" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2391" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:11">
+      <c r="A2392" s="1">
+        <v>1587</v>
+      </c>
+      <c r="B2392" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2392" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2392" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E2392" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2392" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2392" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2392" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2392" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2392" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2392" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:11">
+      <c r="A2393" s="1">
+        <v>1590</v>
+      </c>
+      <c r="B2393" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2393" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2393" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E2393" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2393" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2393" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2393" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="I2393" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2393" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2393" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:11">
+      <c r="A2394" s="1">
+        <v>1590</v>
+      </c>
+      <c r="B2394" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2394" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2394" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E2394" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2394" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2394" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="H2394" s="0">
+        <v>9.40</v>
+      </c>
+      <c r="I2394" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2394" s="1">
+        <v>244</v>
+      </c>
+      <c r="K2394" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:11">
+      <c r="A2395" s="1">
+        <v>1590</v>
+      </c>
+      <c r="B2395" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2395" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2395" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E2395" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2395" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2395" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2395" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2395" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2395" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2395" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:11">
+      <c r="A2396" s="1">
+        <v>1590</v>
+      </c>
+      <c r="B2396" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2396" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2396" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E2396" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2396" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2396" s="0">
+        <v>7.90</v>
+      </c>
+      <c r="H2396" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2396" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2396" s="1">
+        <v>257</v>
+      </c>
+      <c r="K2396" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:11">
+      <c r="A2397" s="1">
+        <v>1593</v>
+      </c>
+      <c r="B2397" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2397" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2397" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E2397" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2397" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2397" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2397" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="I2397" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2397" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2397" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:11">
+      <c r="A2398" s="1">
+        <v>1593</v>
+      </c>
+      <c r="B2398" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2398" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2398" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E2398" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2398" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2398" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="H2398" s="0">
+        <v>9.40</v>
+      </c>
+      <c r="I2398" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2398" s="1">
+        <v>244</v>
+      </c>
+      <c r="K2398" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:11">
+      <c r="A2399" s="1">
+        <v>1593</v>
+      </c>
+      <c r="B2399" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2399" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2399" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E2399" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2399" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2399" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2399" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2399" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2399" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2399" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:11">
+      <c r="A2400" s="1">
+        <v>1593</v>
+      </c>
+      <c r="B2400" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2400" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2400" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E2400" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2400" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2400" s="0">
+        <v>7.90</v>
+      </c>
+      <c r="H2400" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2400" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2400" s="1">
+        <v>257</v>
+      </c>
+      <c r="K2400" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:11">
+      <c r="A2401" s="1">
+        <v>1594</v>
+      </c>
+      <c r="B2401" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2401" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2401" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E2401" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F2401" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2401" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2401" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2401" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2401" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2401" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:11">
+      <c r="A2402" s="1">
+        <v>1594</v>
+      </c>
+      <c r="B2402" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2402" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2402" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E2402" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F2402" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="G2402" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2402" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2402" s="1">
+        <v>1725</v>
+      </c>
+      <c r="J2402" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2402" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:11">
+      <c r="A2403" s="1">
+        <v>1594</v>
+      </c>
+      <c r="B2403" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2403" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2403" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E2403" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F2403" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2403" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2403" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2403" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2403" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2403" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:11">
+      <c r="A2404" s="1">
+        <v>1594</v>
+      </c>
+      <c r="B2404" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2404" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2404" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E2404" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F2404" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2404" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2404" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2404" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2404" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2404" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:11">
+      <c r="A2405" s="1">
+        <v>1595</v>
+      </c>
+      <c r="B2405" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2405" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2405" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E2405" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F2405" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2405" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2405" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2405" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2405" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2405" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:11">
+      <c r="A2406" s="1">
+        <v>1595</v>
+      </c>
+      <c r="B2406" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2406" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2406" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E2406" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F2406" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="G2406" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2406" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2406" s="1">
+        <v>1725</v>
+      </c>
+      <c r="J2406" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2406" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:11">
+      <c r="A2407" s="1">
+        <v>1595</v>
+      </c>
+      <c r="B2407" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2407" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2407" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E2407" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F2407" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2407" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2407" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2407" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2407" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2407" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:11">
+      <c r="A2408" s="1">
+        <v>1595</v>
+      </c>
+      <c r="B2408" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2408" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2408" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E2408" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F2408" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2408" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2408" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2408" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2408" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2408" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:11">
+      <c r="A2409" s="1">
+        <v>1596</v>
+      </c>
+      <c r="B2409" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2409" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2409" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E2409" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F2409" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2409" s="0">
+        <v>9.90</v>
+      </c>
+      <c r="H2409" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2409" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2409" s="1">
+        <v>322</v>
+      </c>
+      <c r="K2409" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:11">
+      <c r="A2410" s="1">
+        <v>1596</v>
+      </c>
+      <c r="B2410" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2410" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2410" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E2410" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F2410" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2410" s="0">
+        <v>9.90</v>
+      </c>
+      <c r="H2410" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2410" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2410" s="1">
+        <v>322</v>
+      </c>
+      <c r="K2410" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:11">
+      <c r="A2411" s="1">
+        <v>1597</v>
+      </c>
+      <c r="B2411" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2411" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2411" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E2411" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F2411" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2411" s="0">
+        <v>9.90</v>
+      </c>
+      <c r="H2411" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2411" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2411" s="1">
+        <v>322</v>
+      </c>
+      <c r="K2411" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:11">
+      <c r="A2412" s="1">
+        <v>1597</v>
+      </c>
+      <c r="B2412" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2412" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2412" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E2412" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F2412" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2412" s="0">
+        <v>9.90</v>
+      </c>
+      <c r="H2412" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2412" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2412" s="1">
+        <v>322</v>
+      </c>
+      <c r="K2412" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:11">
+      <c r="A2413" s="1">
+        <v>1599</v>
+      </c>
+      <c r="B2413" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2413" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2413" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E2413" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2413" s="0">
+        <v>9.50</v>
+      </c>
+      <c r="G2413" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2413" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2413" s="1">
+        <v>1644</v>
+      </c>
+      <c r="J2413" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2413" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:11">
+      <c r="A2414" s="1">
+        <v>1599</v>
+      </c>
+      <c r="B2414" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2414" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2414" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E2414" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2414" s="0">
+        <v>11.00</v>
+      </c>
+      <c r="G2414" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="H2414" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2414" s="1">
+        <v>1888</v>
+      </c>
+      <c r="J2414" s="1">
+        <v>244</v>
+      </c>
+      <c r="K2414" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:11">
+      <c r="A2415" s="1">
+        <v>1599</v>
+      </c>
+      <c r="B2415" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2415" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2415" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E2415" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2415" s="0">
+        <v>9.90</v>
+      </c>
+      <c r="G2415" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="H2415" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2415" s="1">
+        <v>1709</v>
+      </c>
+      <c r="J2415" s="1">
+        <v>244</v>
+      </c>
+      <c r="K2415" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:11">
+      <c r="A2416" s="1">
+        <v>1602</v>
+      </c>
+      <c r="B2416" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2416" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2416" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E2416" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F2416" s="0">
+        <v>6.75</v>
+      </c>
+      <c r="G2416" s="0">
+        <v>10.15</v>
+      </c>
+      <c r="H2416" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2416" s="1">
+        <v>1197</v>
+      </c>
+      <c r="J2416" s="1">
+        <v>330</v>
+      </c>
+      <c r="K2416" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:11">
+      <c r="A2417" s="1">
+        <v>1615</v>
+      </c>
+      <c r="B2417" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2417" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2417" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E2417" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2417" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2417" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2417" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="I2417" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2417" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2417" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:11">
+      <c r="A2418" s="1">
+        <v>1615</v>
+      </c>
+      <c r="B2418" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2418" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2418" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E2418" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2418" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2418" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2418" s="0">
+        <v>10.50</v>
+      </c>
+      <c r="I2418" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2418" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2418" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:11">
+      <c r="A2419" s="1">
+        <v>1615</v>
+      </c>
+      <c r="B2419" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2419" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2419" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E2419" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2419" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2419" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2419" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2419" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2419" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2419" s="1">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>

--- a/BreedsPerPet.xlsx
+++ b/BreedsPerPet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1060" count="7265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1113" count="7466">
   <si>
     <t>SpeciesId</t>
   </si>
@@ -2941,6 +2941,12 @@
     <t>ability_racial_packhobgoblin</t>
   </si>
   <si>
+    <t>Albinoschimärling</t>
+  </si>
+  <si>
+    <t>ability_hunter_pet_chimera</t>
+  </si>
+  <si>
     <t>Dread Hatchling</t>
   </si>
   <si>
@@ -2951,192 +2957,327 @@
   </si>
   <si>
     <t>ability_siege_engineer_detonate</t>
-  </si>
-  <si>
-    <t>Royal Peacock</t>
-  </si>
-  <si>
-    <t>inv_pet_peacock_gold</t>
-  </si>
-  <si>
-    <t>Teroclaw Hatchling</t>
-  </si>
-  <si>
-    <t>Frostfur Rat</t>
-  </si>
-  <si>
-    <t>Zomstrok</t>
-  </si>
-  <si>
-    <t>inv_misc_food_92_lobster</t>
-  </si>
-  <si>
-    <t>Leatherhide Runt</t>
-  </si>
-  <si>
-    <t>Mud Jumper</t>
-  </si>
-  <si>
-    <t>inv_pet_toad_brown</t>
-  </si>
-  <si>
-    <t>Wiesentramplerkalb</t>
-  </si>
-  <si>
-    <t>inv_pet_baby_elekk_green</t>
-  </si>
-  <si>
-    <t>Moonshell Crab</t>
-  </si>
-  <si>
-    <t>Mossbite Skitterer</t>
-  </si>
-  <si>
-    <t>inv_ravager2pet_white</t>
-  </si>
-  <si>
-    <t>Thicket Skitterer</t>
-  </si>
-  <si>
-    <t>Icespine Hatchling</t>
-  </si>
-  <si>
-    <t>inv_ravager2pet_blue</t>
-  </si>
-  <si>
-    <t>Bloodsting Wasp</t>
-  </si>
-  <si>
-    <t>inv_dragonflypet_red</t>
-  </si>
-  <si>
-    <t>Wood Wasp</t>
-  </si>
-  <si>
-    <t>inv_dragonflypet_green</t>
-  </si>
-  <si>
-    <t>Twilight Wasp</t>
-  </si>
-  <si>
-    <t>inv_dragonflypet_blue</t>
-  </si>
-  <si>
-    <t>Amberbarb Wasp</t>
-  </si>
-  <si>
-    <t>inv_dragonflypet_yellow</t>
-  </si>
-  <si>
-    <t>Sky-Bo</t>
-  </si>
-  <si>
-    <t>ability_mount_shreddermount</t>
-  </si>
-  <si>
-    <t>Junglebeak</t>
-  </si>
-  <si>
-    <t>inv_toucan_color4</t>
-  </si>
-  <si>
-    <t>Axebeak Hatchling</t>
-  </si>
-  <si>
-    <t>inv_toucan_color1</t>
-  </si>
-  <si>
-    <t>Syd the Squid</t>
-  </si>
-  <si>
-    <t>inv_misc_fish_102</t>
-  </si>
-  <si>
-    <t>Stonegrinder</t>
-  </si>
-  <si>
-    <t>inv_eng_gizmo3</t>
-  </si>
-  <si>
-    <t>Verfluchte Birmakatze</t>
-  </si>
-  <si>
-    <t>trade_archaeology_catstatueemeraldeyes</t>
-  </si>
-  <si>
-    <t>Schrödingers Katze</t>
-  </si>
-  <si>
-    <t>Netherspawn, Spawn of Netherspawn</t>
-  </si>
-  <si>
-    <t>spell_nature_acid_01</t>
-  </si>
-  <si>
-    <t>Frostwolf Ghostpup</t>
-  </si>
-  <si>
-    <t>inv_jewelry_frostwolftrinket_02</t>
-  </si>
-  <si>
-    <t>Ancient Nest Guardian</t>
-  </si>
-  <si>
-    <t>inv_eng_clockworkegg</t>
-  </si>
-  <si>
-    <t>Ikky</t>
-  </si>
-  <si>
-    <t>inv_feather_01</t>
-  </si>
-  <si>
-    <t>Crimson Spore</t>
-  </si>
-  <si>
-    <t>priest_icon_chakra_red</t>
-  </si>
-  <si>
-    <t>Umbrafen Spore</t>
-  </si>
-  <si>
-    <t>priest_icon_chakra_blue</t>
-  </si>
-  <si>
-    <t>Brilliant Spore</t>
-  </si>
-  <si>
-    <t>Hydraling</t>
-  </si>
-  <si>
-    <t>Stormwing</t>
-  </si>
-  <si>
-    <t>ability_mount_stormcrowmount</t>
-  </si>
-  <si>
-    <t>Bronze Whelpling</t>
-  </si>
-  <si>
-    <t>inv_misc_head_dragon_bronze</t>
-  </si>
-  <si>
-    <t>Doom Bloom</t>
-  </si>
-  <si>
-    <t>inv_misc_herb_dreamingglory</t>
   </si>
   <si>
     <t>
     </t>
   </si>
   <si>
+    <t>spell_shadow_abominationexplosion</t>
+  </si>
+  <si>
+    <t>inv_misc_fork&amp;knife</t>
+  </si>
+  <si>
+    <t>Crazy Carrot</t>
+  </si>
+  <si>
+    <t>Mechanical Axebeak</t>
+  </si>
+  <si>
+    <t>Royal Peacock</t>
+  </si>
+  <si>
+    <t>inv_pet_peacock_gold</t>
+  </si>
+  <si>
+    <t>Lifelike Mechanical Frostboar</t>
+  </si>
+  <si>
+    <t>inv_misc_boarshead</t>
+  </si>
+  <si>
+    <t>Teroclaw Hatchling</t>
+  </si>
+  <si>
+    <t>Elekk Plushie</t>
+  </si>
+  <si>
+    <t>inv_tailoring_elekkplushie</t>
+  </si>
+  <si>
+    <t>Frostfur Rat</t>
+  </si>
+  <si>
+    <t>Zomstrok</t>
+  </si>
+  <si>
+    <t>inv_misc_food_92_lobster</t>
+  </si>
+  <si>
+    <t>Forest Sproutling</t>
+  </si>
+  <si>
+    <t>inv_misc_herb_wldsteelbloom_petal</t>
+  </si>
+  <si>
+    <t>Nightshade Sproutling</t>
+  </si>
+  <si>
+    <t>Sonnensprössling</t>
+  </si>
+  <si>
+    <t>Leatherhide Runt</t>
+  </si>
+  <si>
+    <t>Mud Jumper</t>
+  </si>
+  <si>
+    <t>inv_pet_toad_brown</t>
+  </si>
+  <si>
+    <t>inv_pet_goat</t>
+  </si>
+  <si>
+    <t>Wiesentramplerkalb</t>
+  </si>
+  <si>
+    <t>inv_pet_baby_elekk_green</t>
+  </si>
+  <si>
+    <t>Moonshell Crab</t>
+  </si>
+  <si>
+    <t>Deathwatch Hatchling</t>
+  </si>
+  <si>
+    <t>inv_ravager2pet_black</t>
+  </si>
+  <si>
+    <t>Draenei Micro Defender</t>
+  </si>
+  <si>
+    <t>inv_eng_gizmo2</t>
+  </si>
+  <si>
+    <t>Molten Corgi</t>
+  </si>
+  <si>
+    <t>inv_moltencorgi</t>
+  </si>
+  <si>
+    <t>Mossbite Skitterer</t>
+  </si>
+  <si>
+    <t>inv_ravager2pet_white</t>
+  </si>
+  <si>
+    <t>Thicket Skitterer</t>
+  </si>
+  <si>
+    <t>Icespine Hatchling</t>
+  </si>
+  <si>
+    <t>inv_ravager2pet_blue</t>
+  </si>
+  <si>
+    <t>inv_dragonflypet_bone</t>
+  </si>
+  <si>
+    <t>Bloodsting Wasp</t>
+  </si>
+  <si>
+    <t>inv_dragonflypet_red</t>
+  </si>
+  <si>
+    <t>Wood Wasp</t>
+  </si>
+  <si>
+    <t>inv_dragonflypet_green</t>
+  </si>
+  <si>
+    <t>Twilight Wasp</t>
+  </si>
+  <si>
+    <t>inv_dragonflypet_blue</t>
+  </si>
+  <si>
+    <t>Amberbarb Wasp</t>
+  </si>
+  <si>
+    <t>inv_dragonflypet_yellow</t>
+  </si>
+  <si>
+    <t>Sky-Bo</t>
+  </si>
+  <si>
+    <t>ability_mount_shreddermount</t>
+  </si>
+  <si>
+    <t>Junglebeak</t>
+  </si>
+  <si>
+    <t>inv_toucan_color4</t>
+  </si>
+  <si>
+    <t>Axebeak Hatchling</t>
+  </si>
+  <si>
+    <t>inv_toucan_color1</t>
+  </si>
+  <si>
+    <t>Fruit Hunter</t>
+  </si>
+  <si>
+    <t>inv_misc_food_41</t>
+  </si>
+  <si>
+    <t>Syd the Squid</t>
+  </si>
+  <si>
+    <t>inv_misc_fish_102</t>
+  </si>
+  <si>
+    <t>Ore Eater</t>
+  </si>
+  <si>
+    <t>inv_misc_leather_shellfragment</t>
+  </si>
+  <si>
+    <t>Stonegrinder</t>
+  </si>
+  <si>
+    <t>inv_eng_gizmo3</t>
+  </si>
+  <si>
+    <t>Bush Chicken</t>
+  </si>
+  <si>
+    <t>Verfluchte Birmakatze</t>
+  </si>
+  <si>
+    <t>trade_archaeology_catstatueemeraldeyes</t>
+  </si>
+  <si>
+    <t>Schrödingers Katze</t>
+  </si>
+  <si>
+    <t>Netherspawn, Spawn of Netherspawn</t>
+  </si>
+  <si>
+    <t>spell_nature_acid_01</t>
+  </si>
+  <si>
+    <t>Frostwolf Ghostpup</t>
+  </si>
+  <si>
+    <t>inv_jewelry_frostwolftrinket_02</t>
+  </si>
+  <si>
+    <t>Ancient Nest Guardian</t>
+  </si>
+  <si>
+    <t>inv_eng_clockworkegg</t>
+  </si>
+  <si>
+    <t>Ikky</t>
+  </si>
+  <si>
+    <t>inv_feather_01</t>
+  </si>
+  <si>
+    <t>Lanticore Spawnling</t>
+  </si>
+  <si>
+    <t>achievement_dungeon_blackwingdescent_raid_chimaron</t>
+  </si>
+  <si>
+    <t>Crimson Spore</t>
+  </si>
+  <si>
+    <t>priest_icon_chakra_red</t>
+  </si>
+  <si>
+    <t>Umbrafen Spore</t>
+  </si>
+  <si>
+    <t>priest_icon_chakra_blue</t>
+  </si>
+  <si>
+    <t>Brilliant Spore</t>
+  </si>
+  <si>
+    <t>Hydraling</t>
+  </si>
+  <si>
+    <t>Frostwolf Pup</t>
+  </si>
+  <si>
+    <t>inv_frostwolfpup</t>
+  </si>
+  <si>
+    <t>spell_nature_polymorph_cow</t>
+  </si>
+  <si>
+    <t>Hatespark the Tiny</t>
+  </si>
+  <si>
+    <t>spell_fire_ragnaros_supernova</t>
+  </si>
+  <si>
+    <t>Firewing</t>
+  </si>
+  <si>
+    <t>ability_mount_fireravengodmount</t>
+  </si>
+  <si>
+    <t>Stormwing</t>
+  </si>
+  <si>
+    <t>ability_mount_stormcrowmount</t>
+  </si>
+  <si>
+    <t>Bronze Whelpling</t>
+  </si>
+  <si>
+    <t>inv_misc_head_dragon_bronze</t>
+  </si>
+  <si>
+    <t>Doom Bloom</t>
+  </si>
+  <si>
+    <t>inv_misc_herb_dreamingglory</t>
+  </si>
+  <si>
+    <t>Mechanical Scorpid</t>
+  </si>
+  <si>
     <t>inv_eng_metalblingronear</t>
   </si>
   <si>
+    <t>Everbloom Peachick</t>
+  </si>
+  <si>
     <t>inv_pet_peacock_green</t>
   </si>
   <si>
+    <t>Sentinel's Companion</t>
+  </si>
+  <si>
+    <t>Puddle Terror</t>
+  </si>
+  <si>
+    <t>ability_shawaterelemental_reform</t>
+  </si>
+  <si>
+    <t>Soul of the Forge</t>
+  </si>
+  <si>
+    <t>6bf_explosive_shard</t>
+  </si>
+  <si>
+    <t>Sonnenfeuerkaliri</t>
+  </si>
+  <si>
+    <t>inv_feather_06</t>
+  </si>
+  <si>
+    <t>Albino River Calf</t>
+  </si>
+  <si>
+    <t>inv_babyhippo01_white</t>
+  </si>
+  <si>
     <t>Brilliant Bloodfeather</t>
   </si>
   <si>
@@ -3146,6 +3287,18 @@
     <t>Golden Dawnfeather</t>
   </si>
   <si>
+    <t>Son of Sethe</t>
+  </si>
+  <si>
+    <t>inv_misc_boilingblood</t>
+  </si>
+  <si>
+    <t>Eye of Observation</t>
+  </si>
+  <si>
+    <t>achievement_boss_cthun</t>
+  </si>
+  <si>
     <t>Frostshell Pincher</t>
   </si>
   <si>
@@ -3186,6 +3339,12 @@
   </si>
   <si>
     <t>Shadow Sporebat</t>
+  </si>
+  <si>
+    <t>Servant of Demidos</t>
+  </si>
+  <si>
+    <t>spell_shadow_summonvoidwalker</t>
   </si>
   <si>
     <t>Grommloc</t>
@@ -3271,7 +3430,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <sheetPr codeName="BreedsPerPet"/>
-  <dimension ref="A1:K2418"/>
+  <dimension ref="A1:K2485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3281,7 +3440,7 @@
     <col customWidth="1" bestFit="1" style="1" width="8.18" min="2" max="2"/>
     <col customWidth="1" bestFit="1" style="1" width="10.55" min="3" max="3"/>
     <col customWidth="1" bestFit="1" style="1" width="33.37" min="4" max="4"/>
-    <col customWidth="1" bestFit="1" style="1" width="43.26" min="5" max="5"/>
+    <col customWidth="1" bestFit="1" style="1" width="46.81" min="5" max="5"/>
     <col customWidth="1" bestFit="1" style="1" width="11.24" min="6" max="6"/>
     <col customWidth="1" bestFit="1" style="1" width="11.15" min="7" max="7"/>
     <col customWidth="1" bestFit="1" style="1" width="11.15" min="8" max="8"/>
@@ -83233,13 +83392,13 @@
     </row>
     <row r="2285" spans="1:11">
       <c r="A2285" s="1">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B2285" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2285" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D2285" s="1" t="s">
         <v>975</v>
@@ -83248,103 +83407,103 @@
         <v>976</v>
       </c>
       <c r="F2285" s="0">
-        <v>8.12</v>
+        <v>8.50</v>
       </c>
       <c r="G2285" s="0">
-        <v>10.38</v>
+        <v>8.50</v>
       </c>
       <c r="H2285" s="0">
-        <v>7.50</v>
+        <v>8.50</v>
       </c>
       <c r="I2285" s="1">
-        <v>1420</v>
+        <v>1481</v>
       </c>
       <c r="J2285" s="1">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="K2285" s="1">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2286" spans="1:11">
       <c r="A2286" s="1">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B2286" s="4">
         <v>14</v>
       </c>
       <c r="C2286" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D2286" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E2286" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F2286" s="0">
         <v>8.00</v>
       </c>
       <c r="G2286" s="0">
-        <v>10.50</v>
+        <v>10.00</v>
       </c>
       <c r="H2286" s="0">
-        <v>7.50</v>
+        <v>8.00</v>
       </c>
       <c r="I2286" s="1">
         <v>1400</v>
       </c>
       <c r="J2286" s="1">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="K2286" s="1">
-        <v>244</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2287" spans="1:11">
       <c r="A2287" s="1">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B2287" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2287" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D2287" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E2287" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F2287" s="0">
-        <v>10.00</v>
+        <v>8.00</v>
       </c>
       <c r="G2287" s="0">
-        <v>8.50</v>
+        <v>8.90</v>
       </c>
       <c r="H2287" s="0">
-        <v>7.50</v>
+        <v>8.90</v>
       </c>
       <c r="I2287" s="1">
-        <v>1725</v>
+        <v>1400</v>
       </c>
       <c r="J2287" s="1">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="K2287" s="1">
-        <v>244</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2288" spans="1:11">
       <c r="A2288" s="1">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B2288" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2288" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D2288" s="1" t="s">
         <v>977</v>
@@ -83353,19 +83512,19 @@
         <v>978</v>
       </c>
       <c r="F2288" s="0">
-        <v>8.90</v>
+        <v>8.12</v>
       </c>
       <c r="G2288" s="0">
-        <v>9.40</v>
+        <v>10.38</v>
       </c>
       <c r="H2288" s="0">
         <v>7.50</v>
       </c>
       <c r="I2288" s="1">
-        <v>1546</v>
+        <v>1420</v>
       </c>
       <c r="J2288" s="1">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K2288" s="1">
         <v>244</v>
@@ -83376,34 +83535,34 @@
         <v>1387</v>
       </c>
       <c r="B2289" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2289" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2289" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E2289" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="F2289" s="0">
         <v>8.00</v>
       </c>
       <c r="G2289" s="0">
-        <v>9.40</v>
+        <v>10.50</v>
       </c>
       <c r="H2289" s="0">
-        <v>8.40</v>
+        <v>7.50</v>
       </c>
       <c r="I2289" s="1">
         <v>1400</v>
       </c>
       <c r="J2289" s="1">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="K2289" s="1">
-        <v>273</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2290" spans="1:11">
@@ -83411,45 +83570,45 @@
         <v>1387</v>
       </c>
       <c r="B2290" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2290" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2290" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E2290" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="F2290" s="0">
-        <v>8.40</v>
+        <v>10.00</v>
       </c>
       <c r="G2290" s="0">
-        <v>9.40</v>
+        <v>8.50</v>
       </c>
       <c r="H2290" s="0">
-        <v>7.90</v>
+        <v>7.50</v>
       </c>
       <c r="I2290" s="1">
-        <v>1465</v>
+        <v>1725</v>
       </c>
       <c r="J2290" s="1">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="K2290" s="1">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2291" spans="1:11">
       <c r="A2291" s="1">
-        <v>1411</v>
+        <v>1387</v>
       </c>
       <c r="B2291" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2291" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D2291" s="1" t="s">
         <v>979</v>
@@ -83458,488 +83617,488 @@
         <v>980</v>
       </c>
       <c r="F2291" s="0">
-        <v>8.40</v>
+        <v>8.90</v>
       </c>
       <c r="G2291" s="0">
-        <v>8.90</v>
+        <v>9.40</v>
       </c>
       <c r="H2291" s="0">
-        <v>8.40</v>
+        <v>7.50</v>
       </c>
       <c r="I2291" s="1">
-        <v>1465</v>
+        <v>1546</v>
       </c>
       <c r="J2291" s="1">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="K2291" s="1">
-        <v>273</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2292" spans="1:11">
       <c r="A2292" s="1">
-        <v>1416</v>
+        <v>1387</v>
       </c>
       <c r="B2292" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2292" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D2292" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E2292" s="1" t="s">
-        <v>31</v>
+        <v>980</v>
       </c>
       <c r="F2292" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="G2292" s="0">
-        <v>8.90</v>
+        <v>9.40</v>
       </c>
       <c r="H2292" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="I2292" s="1">
-        <v>1546</v>
+        <v>1400</v>
       </c>
       <c r="J2292" s="1">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="K2292" s="1">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2293" spans="1:11">
       <c r="A2293" s="1">
-        <v>1427</v>
+        <v>1387</v>
       </c>
       <c r="B2293" s="4">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2293" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D2293" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E2293" s="1" t="s">
-        <v>206</v>
+        <v>980</v>
       </c>
       <c r="F2293" s="0">
-        <v>8.12</v>
+        <v>8.40</v>
       </c>
       <c r="G2293" s="0">
-        <v>8.38</v>
+        <v>9.40</v>
       </c>
       <c r="H2293" s="0">
-        <v>9.00</v>
+        <v>7.90</v>
       </c>
       <c r="I2293" s="1">
-        <v>1420</v>
+        <v>1465</v>
       </c>
       <c r="J2293" s="1">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="K2293" s="1">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2294" spans="1:11">
       <c r="A2294" s="1">
-        <v>1427</v>
+        <v>1394</v>
       </c>
       <c r="B2294" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2294" s="1" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="D2294" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E2294" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="E2294" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="F2294" s="0">
-        <v>7.62</v>
+        <v>10.50</v>
       </c>
       <c r="G2294" s="0">
-        <v>9.88</v>
+        <v>8.00</v>
       </c>
       <c r="H2294" s="0">
-        <v>8.50</v>
+        <v>7.50</v>
       </c>
       <c r="I2294" s="1">
-        <v>1339</v>
+        <v>1806</v>
       </c>
       <c r="J2294" s="1">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="K2294" s="1">
-        <v>276</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2295" spans="1:11">
       <c r="A2295" s="1">
-        <v>1427</v>
+        <v>1395</v>
       </c>
       <c r="B2295" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2295" s="1" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="D2295" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E2295" s="1" t="s">
-        <v>206</v>
+        <v>983</v>
       </c>
       <c r="F2295" s="0">
-        <v>7.62</v>
+        <v>10.00</v>
       </c>
       <c r="G2295" s="0">
-        <v>7.88</v>
+        <v>8.00</v>
       </c>
       <c r="H2295" s="0">
-        <v>10.50</v>
+        <v>8.00</v>
       </c>
       <c r="I2295" s="1">
-        <v>1339</v>
+        <v>1725</v>
       </c>
       <c r="J2295" s="1">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K2295" s="1">
-        <v>341</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2296" spans="1:11">
       <c r="A2296" s="1">
-        <v>1427</v>
-      </c>
-      <c r="B2296" s="4">
-        <v>16</v>
+        <v>1396</v>
+      </c>
+      <c r="B2296" s="3">
+        <v>8</v>
       </c>
       <c r="C2296" s="1" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="D2296" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E2296" s="1" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F2296" s="0">
-        <v>9.62</v>
+        <v>8.50</v>
       </c>
       <c r="G2296" s="0">
-        <v>7.88</v>
+        <v>8.90</v>
       </c>
       <c r="H2296" s="0">
-        <v>8.50</v>
+        <v>8.40</v>
       </c>
       <c r="I2296" s="1">
-        <v>1664</v>
+        <v>1481</v>
       </c>
       <c r="J2296" s="1">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="K2296" s="1">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2297" spans="1:11">
       <c r="A2297" s="1">
-        <v>1427</v>
+        <v>1403</v>
       </c>
       <c r="B2297" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2297" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D2297" s="1" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="E2297" s="1" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="F2297" s="0">
-        <v>8.52</v>
+        <v>8.00</v>
       </c>
       <c r="G2297" s="0">
-        <v>8.77</v>
+        <v>10.00</v>
       </c>
       <c r="H2297" s="0">
-        <v>8.50</v>
+        <v>8.00</v>
       </c>
       <c r="I2297" s="1">
-        <v>1485</v>
+        <v>1400</v>
       </c>
       <c r="J2297" s="1">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="K2297" s="1">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2298" spans="1:11">
       <c r="A2298" s="1">
-        <v>1427</v>
+        <v>1403</v>
       </c>
       <c r="B2298" s="4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2298" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D2298" s="1" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="E2298" s="1" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="F2298" s="0">
-        <v>7.62</v>
+        <v>8.00</v>
       </c>
       <c r="G2298" s="0">
-        <v>8.77</v>
+        <v>8.00</v>
       </c>
       <c r="H2298" s="0">
-        <v>9.40</v>
+        <v>10.00</v>
       </c>
       <c r="I2298" s="1">
-        <v>1339</v>
+        <v>1400</v>
       </c>
       <c r="J2298" s="1">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="K2298" s="1">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2299" spans="1:11">
       <c r="A2299" s="1">
-        <v>1427</v>
+        <v>1403</v>
       </c>
       <c r="B2299" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2299" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D2299" s="1" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="E2299" s="1" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="F2299" s="0">
-        <v>8.52</v>
+        <v>8.90</v>
       </c>
       <c r="G2299" s="0">
-        <v>8.28</v>
+        <v>8.90</v>
       </c>
       <c r="H2299" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="I2299" s="1">
-        <v>1485</v>
+        <v>1546</v>
       </c>
       <c r="J2299" s="1">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="K2299" s="1">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2300" spans="1:11">
       <c r="A2300" s="1">
-        <v>1428</v>
+        <v>1403</v>
       </c>
       <c r="B2300" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2300" s="1" t="s">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="D2300" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E2300" s="1" t="s">
-        <v>984</v>
+        <v>80</v>
       </c>
       <c r="F2300" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="G2300" s="0">
         <v>8.90</v>
       </c>
       <c r="H2300" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="I2300" s="1">
-        <v>1546</v>
+        <v>1465</v>
       </c>
       <c r="J2300" s="1">
         <v>289</v>
       </c>
       <c r="K2300" s="1">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2301" spans="1:11">
       <c r="A2301" s="1">
-        <v>1435</v>
+        <v>1403</v>
       </c>
       <c r="B2301" s="4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C2301" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D2301" s="1" t="s">
         <v>985</v>
       </c>
       <c r="E2301" s="1" t="s">
-        <v>572</v>
+        <v>80</v>
       </c>
       <c r="F2301" s="0">
-        <v>9.50</v>
+        <v>8.40</v>
       </c>
       <c r="G2301" s="0">
-        <v>9.00</v>
+        <v>8.40</v>
       </c>
       <c r="H2301" s="0">
-        <v>7.00</v>
+        <v>8.90</v>
       </c>
       <c r="I2301" s="1">
-        <v>1644</v>
+        <v>1465</v>
       </c>
       <c r="J2301" s="1">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="K2301" s="1">
-        <v>228</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2302" spans="1:11">
       <c r="A2302" s="1">
-        <v>1435</v>
+        <v>1411</v>
       </c>
       <c r="B2302" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2302" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D2302" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E2302" s="1" t="s">
-        <v>572</v>
+        <v>987</v>
       </c>
       <c r="F2302" s="0">
-        <v>11.00</v>
+        <v>8.40</v>
       </c>
       <c r="G2302" s="0">
-        <v>8.50</v>
+        <v>8.90</v>
       </c>
       <c r="H2302" s="0">
-        <v>6.50</v>
+        <v>8.40</v>
       </c>
       <c r="I2302" s="1">
-        <v>1888</v>
+        <v>1465</v>
       </c>
       <c r="J2302" s="1">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="K2302" s="1">
-        <v>211</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2303" spans="1:11">
       <c r="A2303" s="1">
-        <v>1441</v>
+        <v>1412</v>
       </c>
       <c r="B2303" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2303" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D2303" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E2303" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F2303" s="0">
-        <v>9.00</v>
+        <v>8.00</v>
       </c>
       <c r="G2303" s="0">
-        <v>8.00</v>
+        <v>10.00</v>
       </c>
       <c r="H2303" s="0">
-        <v>8.50</v>
+        <v>8.00</v>
       </c>
       <c r="I2303" s="1">
-        <v>1563</v>
+        <v>1400</v>
       </c>
       <c r="J2303" s="1">
+        <v>325</v>
+      </c>
+      <c r="K2303" s="1">
         <v>260</v>
-      </c>
-      <c r="K2303" s="1">
-        <v>276</v>
       </c>
     </row>
     <row r="2304" spans="1:11">
       <c r="A2304" s="1">
-        <v>1441</v>
+        <v>1412</v>
       </c>
       <c r="B2304" s="4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2304" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D2304" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E2304" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F2304" s="0">
-        <v>9.40</v>
+        <v>8.00</v>
       </c>
       <c r="G2304" s="0">
-        <v>7.90</v>
+        <v>8.00</v>
       </c>
       <c r="H2304" s="0">
-        <v>8.40</v>
+        <v>10.00</v>
       </c>
       <c r="I2304" s="1">
-        <v>1628</v>
+        <v>1400</v>
       </c>
       <c r="J2304" s="1">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K2304" s="1">
-        <v>273</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2305" spans="1:11">
       <c r="A2305" s="1">
-        <v>1446</v>
+        <v>1412</v>
       </c>
       <c r="B2305" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2305" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2305" s="1" t="s">
         <v>988</v>
@@ -83948,54 +84107,54 @@
         <v>989</v>
       </c>
       <c r="F2305" s="0">
-        <v>8.40</v>
+        <v>10.00</v>
       </c>
       <c r="G2305" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="H2305" s="0">
-        <v>8.40</v>
+        <v>8.00</v>
       </c>
       <c r="I2305" s="1">
-        <v>1465</v>
+        <v>1725</v>
       </c>
       <c r="J2305" s="1">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="K2305" s="1">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2306" spans="1:11">
       <c r="A2306" s="1">
-        <v>1447</v>
+        <v>1416</v>
       </c>
       <c r="B2306" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2306" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D2306" s="1" t="s">
         <v>990</v>
       </c>
       <c r="E2306" s="1" t="s">
-        <v>509</v>
+        <v>31</v>
       </c>
       <c r="F2306" s="0">
-        <v>8.00</v>
+        <v>8.90</v>
       </c>
       <c r="G2306" s="0">
-        <v>10.00</v>
+        <v>8.90</v>
       </c>
       <c r="H2306" s="0">
         <v>8.00</v>
       </c>
       <c r="I2306" s="1">
-        <v>1400</v>
+        <v>1546</v>
       </c>
       <c r="J2306" s="1">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="K2306" s="1">
         <v>260</v>
@@ -84003,646 +84162,646 @@
     </row>
     <row r="2307" spans="1:11">
       <c r="A2307" s="1">
-        <v>1447</v>
-      </c>
-      <c r="B2307" s="4">
-        <v>16</v>
+        <v>1426</v>
+      </c>
+      <c r="B2307" s="3">
+        <v>6</v>
       </c>
       <c r="C2307" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D2307" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E2307" s="1" t="s">
-        <v>509</v>
+        <v>992</v>
       </c>
       <c r="F2307" s="0">
-        <v>10.00</v>
+        <v>15.00</v>
       </c>
       <c r="G2307" s="0">
         <v>8.00</v>
       </c>
       <c r="H2307" s="0">
-        <v>8.00</v>
+        <v>5.50</v>
       </c>
       <c r="I2307" s="1">
-        <v>1725</v>
+        <v>2538</v>
       </c>
       <c r="J2307" s="1">
         <v>260</v>
       </c>
       <c r="K2307" s="1">
-        <v>260</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2308" spans="1:11">
       <c r="A2308" s="1">
-        <v>1447</v>
+        <v>1427</v>
       </c>
       <c r="B2308" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2308" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D2308" s="1" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E2308" s="1" t="s">
-        <v>509</v>
+        <v>206</v>
       </c>
       <c r="F2308" s="0">
-        <v>8.90</v>
+        <v>8.12</v>
       </c>
       <c r="G2308" s="0">
-        <v>8.90</v>
+        <v>8.38</v>
       </c>
       <c r="H2308" s="0">
-        <v>8.00</v>
+        <v>9.00</v>
       </c>
       <c r="I2308" s="1">
-        <v>1546</v>
+        <v>1420</v>
       </c>
       <c r="J2308" s="1">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="K2308" s="1">
-        <v>260</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2309" spans="1:11">
       <c r="A2309" s="1">
-        <v>1447</v>
+        <v>1427</v>
       </c>
       <c r="B2309" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2309" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D2309" s="1" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E2309" s="1" t="s">
-        <v>509</v>
+        <v>206</v>
       </c>
       <c r="F2309" s="0">
-        <v>8.00</v>
+        <v>7.62</v>
       </c>
       <c r="G2309" s="0">
-        <v>8.90</v>
+        <v>9.88</v>
       </c>
       <c r="H2309" s="0">
-        <v>8.90</v>
+        <v>8.50</v>
       </c>
       <c r="I2309" s="1">
-        <v>1400</v>
+        <v>1339</v>
       </c>
       <c r="J2309" s="1">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="K2309" s="1">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2310" spans="1:11">
       <c r="A2310" s="1">
-        <v>1455</v>
+        <v>1427</v>
       </c>
       <c r="B2310" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2310" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D2310" s="1" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E2310" s="1" t="s">
-        <v>992</v>
+        <v>206</v>
       </c>
       <c r="F2310" s="0">
-        <v>8.50</v>
+        <v>7.62</v>
       </c>
       <c r="G2310" s="0">
-        <v>8.50</v>
+        <v>7.88</v>
       </c>
       <c r="H2310" s="0">
-        <v>8.50</v>
+        <v>10.50</v>
       </c>
       <c r="I2310" s="1">
-        <v>1481</v>
+        <v>1339</v>
       </c>
       <c r="J2310" s="1">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="K2310" s="1">
-        <v>276</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2311" spans="1:11">
       <c r="A2311" s="1">
-        <v>1455</v>
+        <v>1427</v>
       </c>
       <c r="B2311" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2311" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D2311" s="1" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E2311" s="1" t="s">
-        <v>992</v>
+        <v>206</v>
       </c>
       <c r="F2311" s="0">
-        <v>8.40</v>
+        <v>9.62</v>
       </c>
       <c r="G2311" s="0">
-        <v>8.90</v>
+        <v>7.88</v>
       </c>
       <c r="H2311" s="0">
-        <v>8.40</v>
+        <v>8.50</v>
       </c>
       <c r="I2311" s="1">
-        <v>1465</v>
+        <v>1664</v>
       </c>
       <c r="J2311" s="1">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="K2311" s="1">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2312" spans="1:11">
       <c r="A2312" s="1">
-        <v>1455</v>
+        <v>1427</v>
       </c>
       <c r="B2312" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2312" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D2312" s="1" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E2312" s="1" t="s">
-        <v>992</v>
+        <v>206</v>
       </c>
       <c r="F2312" s="0">
-        <v>8.40</v>
+        <v>8.52</v>
       </c>
       <c r="G2312" s="0">
-        <v>8.40</v>
+        <v>8.77</v>
       </c>
       <c r="H2312" s="0">
-        <v>8.90</v>
+        <v>8.50</v>
       </c>
       <c r="I2312" s="1">
-        <v>1465</v>
+        <v>1485</v>
       </c>
       <c r="J2312" s="1">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="K2312" s="1">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2313" spans="1:11">
       <c r="A2313" s="1">
-        <v>1455</v>
+        <v>1427</v>
       </c>
       <c r="B2313" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2313" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D2313" s="1" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E2313" s="1" t="s">
-        <v>992</v>
+        <v>206</v>
       </c>
       <c r="F2313" s="0">
-        <v>8.90</v>
+        <v>7.62</v>
       </c>
       <c r="G2313" s="0">
-        <v>8.40</v>
+        <v>8.77</v>
       </c>
       <c r="H2313" s="0">
-        <v>8.40</v>
+        <v>9.40</v>
       </c>
       <c r="I2313" s="1">
-        <v>1546</v>
+        <v>1339</v>
       </c>
       <c r="J2313" s="1">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="K2313" s="1">
-        <v>273</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2314" spans="1:11">
       <c r="A2314" s="1">
-        <v>1456</v>
+        <v>1427</v>
       </c>
       <c r="B2314" s="4">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C2314" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D2314" s="1" t="s">
         <v>993</v>
       </c>
       <c r="E2314" s="1" t="s">
-        <v>992</v>
+        <v>206</v>
       </c>
       <c r="F2314" s="0">
-        <v>8.50</v>
+        <v>8.52</v>
       </c>
       <c r="G2314" s="0">
-        <v>8.50</v>
+        <v>8.28</v>
       </c>
       <c r="H2314" s="0">
-        <v>8.50</v>
+        <v>8.90</v>
       </c>
       <c r="I2314" s="1">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="J2314" s="1">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K2314" s="1">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2315" spans="1:11">
       <c r="A2315" s="1">
-        <v>1456</v>
+        <v>1428</v>
       </c>
       <c r="B2315" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2315" s="1" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="D2315" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E2315" s="1" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="F2315" s="0">
-        <v>8.40</v>
+        <v>8.90</v>
       </c>
       <c r="G2315" s="0">
         <v>8.90</v>
       </c>
       <c r="H2315" s="0">
-        <v>8.40</v>
+        <v>8.00</v>
       </c>
       <c r="I2315" s="1">
-        <v>1465</v>
+        <v>1546</v>
       </c>
       <c r="J2315" s="1">
         <v>289</v>
       </c>
       <c r="K2315" s="1">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2316" spans="1:11">
       <c r="A2316" s="1">
-        <v>1456</v>
+        <v>1430</v>
       </c>
       <c r="B2316" s="4">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C2316" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D2316" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="E2316" s="1" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="F2316" s="0">
-        <v>8.40</v>
+        <v>8.50</v>
       </c>
       <c r="G2316" s="0">
-        <v>8.40</v>
+        <v>8.50</v>
       </c>
       <c r="H2316" s="0">
-        <v>8.90</v>
+        <v>8.50</v>
       </c>
       <c r="I2316" s="1">
-        <v>1465</v>
+        <v>1481</v>
       </c>
       <c r="J2316" s="1">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K2316" s="1">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2317" spans="1:11">
       <c r="A2317" s="1">
-        <v>1456</v>
+        <v>1430</v>
       </c>
       <c r="B2317" s="4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2317" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D2317" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="E2317" s="1" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="F2317" s="0">
-        <v>8.90</v>
+        <v>10.00</v>
       </c>
       <c r="G2317" s="0">
-        <v>8.40</v>
+        <v>8.00</v>
       </c>
       <c r="H2317" s="0">
-        <v>8.40</v>
+        <v>8.00</v>
       </c>
       <c r="I2317" s="1">
-        <v>1546</v>
+        <v>1725</v>
       </c>
       <c r="J2317" s="1">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="K2317" s="1">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2318" spans="1:11">
       <c r="A2318" s="1">
-        <v>1457</v>
+        <v>1430</v>
       </c>
       <c r="B2318" s="4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2318" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D2318" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2318" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F2318" s="0">
-        <v>8.50</v>
+        <v>8.00</v>
       </c>
       <c r="G2318" s="0">
-        <v>8.50</v>
+        <v>8.90</v>
       </c>
       <c r="H2318" s="0">
-        <v>8.50</v>
+        <v>8.90</v>
       </c>
       <c r="I2318" s="1">
-        <v>1481</v>
+        <v>1400</v>
       </c>
       <c r="J2318" s="1">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="K2318" s="1">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2319" spans="1:11">
       <c r="A2319" s="1">
-        <v>1457</v>
+        <v>1430</v>
       </c>
       <c r="B2319" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2319" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D2319" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2319" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F2319" s="0">
-        <v>8.40</v>
+        <v>8.90</v>
       </c>
       <c r="G2319" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="H2319" s="0">
-        <v>8.40</v>
+        <v>8.90</v>
       </c>
       <c r="I2319" s="1">
-        <v>1465</v>
+        <v>1546</v>
       </c>
       <c r="J2319" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2319" s="1">
         <v>289</v>
-      </c>
-      <c r="K2319" s="1">
-        <v>273</v>
       </c>
     </row>
     <row r="2320" spans="1:11">
       <c r="A2320" s="1">
-        <v>1457</v>
+        <v>1430</v>
       </c>
       <c r="B2320" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2320" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D2320" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2320" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F2320" s="0">
         <v>8.40</v>
       </c>
       <c r="G2320" s="0">
-        <v>8.40</v>
+        <v>8.90</v>
       </c>
       <c r="H2320" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="I2320" s="1">
         <v>1465</v>
       </c>
       <c r="J2320" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2320" s="1">
         <v>273</v>
-      </c>
-      <c r="K2320" s="1">
-        <v>289</v>
       </c>
     </row>
     <row r="2321" spans="1:11">
       <c r="A2321" s="1">
-        <v>1457</v>
+        <v>1432</v>
       </c>
       <c r="B2321" s="4">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2321" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D2321" s="1" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="E2321" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F2321" s="0">
-        <v>8.90</v>
+        <v>8.50</v>
       </c>
       <c r="G2321" s="0">
-        <v>8.40</v>
+        <v>8.50</v>
       </c>
       <c r="H2321" s="0">
-        <v>8.40</v>
+        <v>8.50</v>
       </c>
       <c r="I2321" s="1">
-        <v>1546</v>
+        <v>1481</v>
       </c>
       <c r="J2321" s="1">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K2321" s="1">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2322" spans="1:11">
       <c r="A2322" s="1">
-        <v>1462</v>
+        <v>1432</v>
       </c>
       <c r="B2322" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2322" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D2322" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E2322" s="1" t="s">
         <v>997</v>
       </c>
       <c r="F2322" s="0">
-        <v>8.50</v>
+        <v>8.00</v>
       </c>
       <c r="G2322" s="0">
-        <v>8.50</v>
+        <v>10.00</v>
       </c>
       <c r="H2322" s="0">
-        <v>8.50</v>
+        <v>8.00</v>
       </c>
       <c r="I2322" s="1">
-        <v>1481</v>
+        <v>1400</v>
       </c>
       <c r="J2322" s="1">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="K2322" s="1">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2323" spans="1:11">
       <c r="A2323" s="1">
-        <v>1462</v>
+        <v>1432</v>
       </c>
       <c r="B2323" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2323" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D2323" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E2323" s="1" t="s">
         <v>997</v>
       </c>
       <c r="F2323" s="0">
-        <v>8.40</v>
+        <v>8.00</v>
       </c>
       <c r="G2323" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="H2323" s="0">
-        <v>8.40</v>
+        <v>10.00</v>
       </c>
       <c r="I2323" s="1">
-        <v>1465</v>
+        <v>1400</v>
       </c>
       <c r="J2323" s="1">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="K2323" s="1">
-        <v>273</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2324" spans="1:11">
       <c r="A2324" s="1">
-        <v>1462</v>
+        <v>1432</v>
       </c>
       <c r="B2324" s="4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2324" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D2324" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E2324" s="1" t="s">
         <v>997</v>
       </c>
       <c r="F2324" s="0">
-        <v>8.40</v>
+        <v>10.00</v>
       </c>
       <c r="G2324" s="0">
-        <v>8.40</v>
+        <v>8.00</v>
       </c>
       <c r="H2324" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="I2324" s="1">
-        <v>1465</v>
+        <v>1725</v>
       </c>
       <c r="J2324" s="1">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="K2324" s="1">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2325" spans="1:11">
       <c r="A2325" s="1">
-        <v>1462</v>
+        <v>1432</v>
       </c>
       <c r="B2325" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2325" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D2325" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E2325" s="1" t="s">
         <v>997</v>
@@ -84651,450 +84810,450 @@
         <v>8.90</v>
       </c>
       <c r="G2325" s="0">
-        <v>8.40</v>
+        <v>8.90</v>
       </c>
       <c r="H2325" s="0">
-        <v>8.40</v>
+        <v>8.00</v>
       </c>
       <c r="I2325" s="1">
         <v>1546</v>
       </c>
       <c r="J2325" s="1">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="K2325" s="1">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2326" spans="1:11">
       <c r="A2326" s="1">
-        <v>1463</v>
+        <v>1432</v>
       </c>
       <c r="B2326" s="4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2326" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D2326" s="1" t="s">
         <v>998</v>
       </c>
       <c r="E2326" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F2326" s="0">
-        <v>8.50</v>
+        <v>8.00</v>
       </c>
       <c r="G2326" s="0">
-        <v>8.50</v>
+        <v>8.90</v>
       </c>
       <c r="H2326" s="0">
-        <v>8.50</v>
+        <v>8.90</v>
       </c>
       <c r="I2326" s="1">
-        <v>1481</v>
+        <v>1400</v>
       </c>
       <c r="J2326" s="1">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="K2326" s="1">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2327" spans="1:11">
       <c r="A2327" s="1">
-        <v>1463</v>
+        <v>1432</v>
       </c>
       <c r="B2327" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2327" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D2327" s="1" t="s">
         <v>998</v>
       </c>
       <c r="E2327" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F2327" s="0">
-        <v>8.40</v>
+        <v>8.90</v>
       </c>
       <c r="G2327" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="H2327" s="0">
-        <v>8.40</v>
+        <v>8.90</v>
       </c>
       <c r="I2327" s="1">
-        <v>1465</v>
+        <v>1546</v>
       </c>
       <c r="J2327" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2327" s="1">
         <v>289</v>
-      </c>
-      <c r="K2327" s="1">
-        <v>273</v>
       </c>
     </row>
     <row r="2328" spans="1:11">
       <c r="A2328" s="1">
-        <v>1463</v>
+        <v>1432</v>
       </c>
       <c r="B2328" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2328" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D2328" s="1" t="s">
         <v>998</v>
       </c>
       <c r="E2328" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F2328" s="0">
         <v>8.40</v>
       </c>
       <c r="G2328" s="0">
-        <v>8.40</v>
+        <v>8.90</v>
       </c>
       <c r="H2328" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="I2328" s="1">
         <v>1465</v>
       </c>
       <c r="J2328" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2328" s="1">
         <v>273</v>
-      </c>
-      <c r="K2328" s="1">
-        <v>289</v>
       </c>
     </row>
     <row r="2329" spans="1:11">
       <c r="A2329" s="1">
-        <v>1463</v>
+        <v>1432</v>
       </c>
       <c r="B2329" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2329" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D2329" s="1" t="s">
         <v>998</v>
       </c>
       <c r="E2329" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F2329" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="G2329" s="0">
         <v>8.40</v>
       </c>
       <c r="H2329" s="0">
-        <v>8.40</v>
+        <v>8.90</v>
       </c>
       <c r="I2329" s="1">
-        <v>1546</v>
+        <v>1465</v>
       </c>
       <c r="J2329" s="1">
         <v>273</v>
       </c>
       <c r="K2329" s="1">
-        <v>273</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2330" spans="1:11">
       <c r="A2330" s="1">
-        <v>1464</v>
+        <v>1432</v>
       </c>
       <c r="B2330" s="4">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C2330" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D2330" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E2330" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="F2330" s="0">
-        <v>8.50</v>
+        <v>8.90</v>
       </c>
       <c r="G2330" s="0">
-        <v>8.50</v>
+        <v>8.40</v>
       </c>
       <c r="H2330" s="0">
-        <v>8.50</v>
+        <v>8.40</v>
       </c>
       <c r="I2330" s="1">
-        <v>1481</v>
+        <v>1546</v>
       </c>
       <c r="J2330" s="1">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K2330" s="1">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2331" spans="1:11">
       <c r="A2331" s="1">
-        <v>1464</v>
+        <v>1434</v>
       </c>
       <c r="B2331" s="4">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2331" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D2331" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E2331" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="F2331" s="0">
-        <v>8.40</v>
+        <v>8.00</v>
       </c>
       <c r="G2331" s="0">
-        <v>8.90</v>
+        <v>10.00</v>
       </c>
       <c r="H2331" s="0">
-        <v>8.40</v>
+        <v>8.00</v>
       </c>
       <c r="I2331" s="1">
-        <v>1465</v>
+        <v>1400</v>
       </c>
       <c r="J2331" s="1">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="K2331" s="1">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2332" spans="1:11">
       <c r="A2332" s="1">
-        <v>1464</v>
+        <v>1434</v>
       </c>
       <c r="B2332" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2332" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D2332" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E2332" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="F2332" s="0">
-        <v>8.40</v>
+        <v>8.90</v>
       </c>
       <c r="G2332" s="0">
         <v>8.40</v>
       </c>
       <c r="H2332" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="I2332" s="1">
-        <v>1465</v>
+        <v>1546</v>
       </c>
       <c r="J2332" s="1">
         <v>273</v>
       </c>
       <c r="K2332" s="1">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2333" spans="1:11">
       <c r="A2333" s="1">
-        <v>1464</v>
+        <v>1435</v>
       </c>
       <c r="B2333" s="4">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2333" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D2333" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="E2333" s="1" t="s">
-        <v>1001</v>
+        <v>572</v>
       </c>
       <c r="F2333" s="0">
-        <v>8.90</v>
+        <v>9.50</v>
       </c>
       <c r="G2333" s="0">
-        <v>8.40</v>
+        <v>9.00</v>
       </c>
       <c r="H2333" s="0">
-        <v>8.40</v>
+        <v>7.00</v>
       </c>
       <c r="I2333" s="1">
-        <v>1546</v>
+        <v>1644</v>
       </c>
       <c r="J2333" s="1">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="K2333" s="1">
-        <v>273</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2334" spans="1:11">
       <c r="A2334" s="1">
-        <v>1465</v>
+        <v>1435</v>
       </c>
       <c r="B2334" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2334" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D2334" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E2334" s="1" t="s">
-        <v>1003</v>
+        <v>572</v>
       </c>
       <c r="F2334" s="0">
-        <v>8.50</v>
+        <v>11.00</v>
       </c>
       <c r="G2334" s="0">
         <v>8.50</v>
       </c>
       <c r="H2334" s="0">
-        <v>8.50</v>
+        <v>6.50</v>
       </c>
       <c r="I2334" s="1">
-        <v>1481</v>
+        <v>1888</v>
       </c>
       <c r="J2334" s="1">
         <v>276</v>
       </c>
       <c r="K2334" s="1">
-        <v>276</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2335" spans="1:11">
       <c r="A2335" s="1">
-        <v>1465</v>
+        <v>1441</v>
       </c>
       <c r="B2335" s="4">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2335" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D2335" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E2335" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="E2335" s="1" t="s">
-        <v>1003</v>
-      </c>
       <c r="F2335" s="0">
-        <v>8.40</v>
+        <v>9.00</v>
       </c>
       <c r="G2335" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="H2335" s="0">
-        <v>8.40</v>
+        <v>8.50</v>
       </c>
       <c r="I2335" s="1">
-        <v>1465</v>
+        <v>1563</v>
       </c>
       <c r="J2335" s="1">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="K2335" s="1">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2336" spans="1:11">
       <c r="A2336" s="1">
-        <v>1465</v>
+        <v>1441</v>
       </c>
       <c r="B2336" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2336" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D2336" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E2336" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="E2336" s="1" t="s">
-        <v>1003</v>
-      </c>
       <c r="F2336" s="0">
-        <v>8.40</v>
+        <v>9.40</v>
       </c>
       <c r="G2336" s="0">
-        <v>8.40</v>
+        <v>7.90</v>
       </c>
       <c r="H2336" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="I2336" s="1">
-        <v>1465</v>
+        <v>1628</v>
       </c>
       <c r="J2336" s="1">
+        <v>257</v>
+      </c>
+      <c r="K2336" s="1">
         <v>273</v>
-      </c>
-      <c r="K2336" s="1">
-        <v>289</v>
       </c>
     </row>
     <row r="2337" spans="1:11">
       <c r="A2337" s="1">
-        <v>1465</v>
+        <v>1442</v>
       </c>
       <c r="B2337" s="4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2337" s="1" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="D2337" s="1" t="s">
-        <v>1002</v>
+        <v>981</v>
       </c>
       <c r="E2337" s="1" t="s">
         <v>1003</v>
       </c>
       <c r="F2337" s="0">
-        <v>8.90</v>
+        <v>10.00</v>
       </c>
       <c r="G2337" s="0">
-        <v>8.40</v>
+        <v>8.00</v>
       </c>
       <c r="H2337" s="0">
-        <v>8.40</v>
+        <v>8.00</v>
       </c>
       <c r="I2337" s="1">
-        <v>1546</v>
+        <v>1725</v>
       </c>
       <c r="J2337" s="1">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="K2337" s="1">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2338" spans="1:11">
       <c r="A2338" s="1">
-        <v>1467</v>
+        <v>1446</v>
       </c>
       <c r="B2338" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2338" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C2338" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D2338" s="1" t="s">
         <v>1004</v>
@@ -85103,509 +85262,509 @@
         <v>1005</v>
       </c>
       <c r="F2338" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="G2338" s="0">
-        <v>10.00</v>
+        <v>8.90</v>
       </c>
       <c r="H2338" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="I2338" s="1">
-        <v>1400</v>
+        <v>1465</v>
       </c>
       <c r="J2338" s="1">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="K2338" s="1">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2339" spans="1:11">
       <c r="A2339" s="1">
-        <v>1467</v>
+        <v>1447</v>
       </c>
       <c r="B2339" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2339" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D2339" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E2339" s="1" t="s">
-        <v>1005</v>
+        <v>509</v>
       </c>
       <c r="F2339" s="0">
         <v>8.00</v>
       </c>
       <c r="G2339" s="0">
-        <v>8.00</v>
+        <v>10.00</v>
       </c>
       <c r="H2339" s="0">
-        <v>10.00</v>
+        <v>8.00</v>
       </c>
       <c r="I2339" s="1">
         <v>1400</v>
       </c>
       <c r="J2339" s="1">
+        <v>325</v>
+      </c>
+      <c r="K2339" s="1">
         <v>260</v>
-      </c>
-      <c r="K2339" s="1">
-        <v>325</v>
       </c>
     </row>
     <row r="2340" spans="1:11">
       <c r="A2340" s="1">
-        <v>1469</v>
+        <v>1447</v>
       </c>
       <c r="B2340" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2340" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D2340" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="E2340" s="1" t="s">
-        <v>1007</v>
+        <v>509</v>
       </c>
       <c r="F2340" s="0">
-        <v>8.12</v>
+        <v>10.00</v>
       </c>
       <c r="G2340" s="0">
-        <v>8.75</v>
+        <v>8.00</v>
       </c>
       <c r="H2340" s="0">
-        <v>8.62</v>
+        <v>8.00</v>
       </c>
       <c r="I2340" s="1">
-        <v>1420</v>
+        <v>1725</v>
       </c>
       <c r="J2340" s="1">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="K2340" s="1">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2341" spans="1:11">
       <c r="A2341" s="1">
-        <v>1469</v>
+        <v>1447</v>
       </c>
       <c r="B2341" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2341" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D2341" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="E2341" s="1" t="s">
-        <v>1007</v>
+        <v>509</v>
       </c>
       <c r="F2341" s="0">
-        <v>7.62</v>
+        <v>8.90</v>
       </c>
       <c r="G2341" s="0">
-        <v>10.25</v>
+        <v>8.90</v>
       </c>
       <c r="H2341" s="0">
-        <v>8.12</v>
+        <v>8.00</v>
       </c>
       <c r="I2341" s="1">
-        <v>1339</v>
+        <v>1546</v>
       </c>
       <c r="J2341" s="1">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="K2341" s="1">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2342" spans="1:11">
       <c r="A2342" s="1">
-        <v>1469</v>
+        <v>1447</v>
       </c>
       <c r="B2342" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2342" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D2342" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="E2342" s="1" t="s">
-        <v>1007</v>
+        <v>509</v>
       </c>
       <c r="F2342" s="0">
-        <v>8.52</v>
+        <v>8.00</v>
       </c>
       <c r="G2342" s="0">
-        <v>9.15</v>
+        <v>8.90</v>
       </c>
       <c r="H2342" s="0">
-        <v>8.12</v>
+        <v>8.90</v>
       </c>
       <c r="I2342" s="1">
-        <v>1485</v>
+        <v>1400</v>
       </c>
       <c r="J2342" s="1">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K2342" s="1">
-        <v>264</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2343" spans="1:11">
       <c r="A2343" s="1">
-        <v>1469</v>
+        <v>1449</v>
       </c>
       <c r="B2343" s="4">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2343" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D2343" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E2343" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F2343" s="0">
-        <v>8.03</v>
+        <v>8.00</v>
       </c>
       <c r="G2343" s="0">
-        <v>9.15</v>
+        <v>10.00</v>
       </c>
       <c r="H2343" s="0">
-        <v>8.53</v>
+        <v>8.00</v>
       </c>
       <c r="I2343" s="1">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="J2343" s="1">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="K2343" s="1">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2344" spans="1:11">
       <c r="A2344" s="1">
-        <v>1469</v>
+        <v>1450</v>
       </c>
       <c r="B2344" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2344" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D2344" s="1" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="E2344" s="1" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="F2344" s="0">
-        <v>8.52</v>
+        <v>8.00</v>
       </c>
       <c r="G2344" s="0">
-        <v>8.65</v>
+        <v>8.90</v>
       </c>
       <c r="H2344" s="0">
-        <v>8.53</v>
+        <v>8.90</v>
       </c>
       <c r="I2344" s="1">
-        <v>1485</v>
+        <v>1400</v>
       </c>
       <c r="J2344" s="1">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K2344" s="1">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2345" spans="1:11">
       <c r="A2345" s="1">
-        <v>1470</v>
+        <v>1451</v>
       </c>
       <c r="B2345" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2345" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D2345" s="1" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E2345" s="1" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="F2345" s="0">
-        <v>8.12</v>
+        <v>8.00</v>
       </c>
       <c r="G2345" s="0">
-        <v>8.75</v>
+        <v>8.00</v>
       </c>
       <c r="H2345" s="0">
-        <v>8.62</v>
+        <v>10.00</v>
       </c>
       <c r="I2345" s="1">
-        <v>1420</v>
+        <v>1400</v>
       </c>
       <c r="J2345" s="1">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="K2345" s="1">
-        <v>280</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2346" spans="1:11">
       <c r="A2346" s="1">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="B2346" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2346" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2346" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D2346" s="1" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="E2346" s="1" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="F2346" s="0">
-        <v>7.62</v>
+        <v>8.50</v>
       </c>
       <c r="G2346" s="0">
-        <v>10.25</v>
+        <v>8.50</v>
       </c>
       <c r="H2346" s="0">
-        <v>8.12</v>
+        <v>8.50</v>
       </c>
       <c r="I2346" s="1">
-        <v>1339</v>
+        <v>1481</v>
       </c>
       <c r="J2346" s="1">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="K2346" s="1">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2347" spans="1:11">
       <c r="A2347" s="1">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="B2347" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2347" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D2347" s="1" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="E2347" s="1" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="F2347" s="0">
-        <v>8.52</v>
+        <v>8.40</v>
       </c>
       <c r="G2347" s="0">
-        <v>9.15</v>
+        <v>8.90</v>
       </c>
       <c r="H2347" s="0">
-        <v>8.12</v>
+        <v>8.40</v>
       </c>
       <c r="I2347" s="1">
-        <v>1485</v>
+        <v>1465</v>
       </c>
       <c r="J2347" s="1">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K2347" s="1">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2348" spans="1:11">
       <c r="A2348" s="1">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="B2348" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2348" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D2348" s="1" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="E2348" s="1" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="F2348" s="0">
-        <v>8.03</v>
+        <v>8.40</v>
       </c>
       <c r="G2348" s="0">
-        <v>9.15</v>
+        <v>8.40</v>
       </c>
       <c r="H2348" s="0">
-        <v>8.52</v>
+        <v>8.90</v>
       </c>
       <c r="I2348" s="1">
-        <v>1404</v>
+        <v>1465</v>
       </c>
       <c r="J2348" s="1">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="K2348" s="1">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2349" spans="1:11">
       <c r="A2349" s="1">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="B2349" s="4">
         <v>22</v>
       </c>
       <c r="C2349" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D2349" s="1" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="E2349" s="1" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="F2349" s="0">
-        <v>8.52</v>
+        <v>8.90</v>
       </c>
       <c r="G2349" s="0">
-        <v>8.65</v>
+        <v>8.40</v>
       </c>
       <c r="H2349" s="0">
-        <v>8.52</v>
+        <v>8.40</v>
       </c>
       <c r="I2349" s="1">
-        <v>1485</v>
+        <v>1546</v>
       </c>
       <c r="J2349" s="1">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K2349" s="1">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2350" spans="1:11">
       <c r="A2350" s="1">
-        <v>1478</v>
+        <v>1456</v>
       </c>
       <c r="B2350" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2350" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D2350" s="1" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="E2350" s="1" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="F2350" s="0">
-        <v>8.90</v>
+        <v>8.50</v>
       </c>
       <c r="G2350" s="0">
-        <v>8.90</v>
+        <v>8.50</v>
       </c>
       <c r="H2350" s="0">
-        <v>8.00</v>
+        <v>8.50</v>
       </c>
       <c r="I2350" s="1">
-        <v>1546</v>
+        <v>1481</v>
       </c>
       <c r="J2350" s="1">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="K2350" s="1">
-        <v>260</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2351" spans="1:11">
       <c r="A2351" s="1">
-        <v>1515</v>
+        <v>1456</v>
       </c>
       <c r="B2351" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2351" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2351" s="1" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="E2351" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F2351" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="G2351" s="0">
         <v>8.90</v>
       </c>
       <c r="H2351" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="I2351" s="1">
-        <v>1400</v>
+        <v>1465</v>
       </c>
       <c r="J2351" s="1">
         <v>289</v>
       </c>
       <c r="K2351" s="1">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2352" spans="1:11">
       <c r="A2352" s="1">
-        <v>1521</v>
+        <v>1456</v>
       </c>
       <c r="B2352" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2352" s="1" t="s">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="D2352" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E2352" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="E2352" s="1" t="s">
-        <v>1015</v>
-      </c>
       <c r="F2352" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="G2352" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="H2352" s="0">
         <v>8.90</v>
       </c>
       <c r="I2352" s="1">
-        <v>1400</v>
+        <v>1465</v>
       </c>
       <c r="J2352" s="1">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="K2352" s="1">
         <v>289</v>
@@ -85613,392 +85772,392 @@
     </row>
     <row r="2353" spans="1:11">
       <c r="A2353" s="1">
-        <v>1523</v>
-      </c>
-      <c r="B2353" s="3">
-        <v>5</v>
+        <v>1456</v>
+      </c>
+      <c r="B2353" s="4">
+        <v>22</v>
       </c>
       <c r="C2353" s="1" t="s">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="D2353" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E2353" s="1" t="s">
-        <v>16</v>
+        <v>1014</v>
       </c>
       <c r="F2353" s="0">
-        <v>8.00</v>
+        <v>8.90</v>
       </c>
       <c r="G2353" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="H2353" s="0">
-        <v>10.00</v>
+        <v>8.40</v>
       </c>
       <c r="I2353" s="1">
-        <v>1400</v>
+        <v>1546</v>
       </c>
       <c r="J2353" s="1">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="K2353" s="1">
-        <v>325</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2354" spans="1:11">
       <c r="A2354" s="1">
-        <v>1524</v>
+        <v>1457</v>
       </c>
       <c r="B2354" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2354" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D2354" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E2354" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="E2354" s="1" t="s">
-        <v>1018</v>
-      </c>
       <c r="F2354" s="0">
-        <v>8.90</v>
+        <v>8.50</v>
       </c>
       <c r="G2354" s="0">
-        <v>8.90</v>
+        <v>8.50</v>
       </c>
       <c r="H2354" s="0">
-        <v>8.00</v>
+        <v>8.50</v>
       </c>
       <c r="I2354" s="1">
-        <v>1546</v>
+        <v>1481</v>
       </c>
       <c r="J2354" s="1">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="K2354" s="1">
-        <v>260</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2355" spans="1:11">
       <c r="A2355" s="1">
-        <v>1524</v>
+        <v>1457</v>
       </c>
       <c r="B2355" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2355" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D2355" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E2355" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="E2355" s="1" t="s">
-        <v>1018</v>
-      </c>
       <c r="F2355" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="G2355" s="0">
-        <v>8.00</v>
+        <v>8.90</v>
       </c>
       <c r="H2355" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="I2355" s="1">
-        <v>1546</v>
+        <v>1465</v>
       </c>
       <c r="J2355" s="1">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="K2355" s="1">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2356" spans="1:11">
       <c r="A2356" s="1">
-        <v>1530</v>
+        <v>1457</v>
       </c>
       <c r="B2356" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2356" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2356" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="D2356" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E2356" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="F2356" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="G2356" s="0">
-        <v>10.00</v>
+        <v>8.40</v>
       </c>
       <c r="H2356" s="0">
-        <v>8.00</v>
+        <v>8.90</v>
       </c>
       <c r="I2356" s="1">
-        <v>1400</v>
+        <v>1465</v>
       </c>
       <c r="J2356" s="1">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="K2356" s="1">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2357" spans="1:11">
       <c r="A2357" s="1">
-        <v>1531</v>
+        <v>1457</v>
       </c>
       <c r="B2357" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C2357" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2357" s="1" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="E2357" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="F2357" s="0">
-        <v>9.40</v>
+        <v>8.90</v>
       </c>
       <c r="G2357" s="0">
-        <v>7.90</v>
+        <v>8.40</v>
       </c>
       <c r="H2357" s="0">
-        <v>8.50</v>
+        <v>8.40</v>
       </c>
       <c r="I2357" s="1">
-        <v>1628</v>
+        <v>1546</v>
       </c>
       <c r="J2357" s="1">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="K2357" s="1">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2358" spans="1:11">
       <c r="A2358" s="1">
-        <v>1532</v>
-      </c>
-      <c r="B2358" s="3">
-        <v>8</v>
+        <v>1458</v>
+      </c>
+      <c r="B2358" s="4">
+        <v>13</v>
       </c>
       <c r="C2358" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2358" s="1" t="s">
-        <v>1023</v>
+        <v>981</v>
       </c>
       <c r="E2358" s="1" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="F2358" s="0">
-        <v>7.50</v>
+        <v>8.50</v>
       </c>
       <c r="G2358" s="0">
-        <v>9.90</v>
+        <v>8.50</v>
       </c>
       <c r="H2358" s="0">
-        <v>8.40</v>
+        <v>8.50</v>
       </c>
       <c r="I2358" s="1">
-        <v>1319</v>
+        <v>1481</v>
       </c>
       <c r="J2358" s="1">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="K2358" s="1">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2359" spans="1:11">
       <c r="A2359" s="1">
-        <v>1532</v>
+        <v>1462</v>
       </c>
       <c r="B2359" s="4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2359" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2359" s="1" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="E2359" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="F2359" s="0">
-        <v>7.50</v>
+        <v>8.50</v>
       </c>
       <c r="G2359" s="0">
-        <v>9.90</v>
+        <v>8.50</v>
       </c>
       <c r="H2359" s="0">
-        <v>8.40</v>
+        <v>8.50</v>
       </c>
       <c r="I2359" s="1">
-        <v>1319</v>
+        <v>1481</v>
       </c>
       <c r="J2359" s="1">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="K2359" s="1">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2360" spans="1:11">
       <c r="A2360" s="1">
-        <v>1537</v>
-      </c>
-      <c r="B2360" s="3">
-        <v>6</v>
+        <v>1462</v>
+      </c>
+      <c r="B2360" s="4">
+        <v>20</v>
       </c>
       <c r="C2360" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2360" s="1" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="E2360" s="1" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="F2360" s="0">
-        <v>10.00</v>
+        <v>8.40</v>
       </c>
       <c r="G2360" s="0">
-        <v>8.00</v>
+        <v>8.90</v>
       </c>
       <c r="H2360" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="I2360" s="1">
-        <v>1725</v>
+        <v>1465</v>
       </c>
       <c r="J2360" s="1">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="K2360" s="1">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2361" spans="1:11">
       <c r="A2361" s="1">
-        <v>1538</v>
-      </c>
-      <c r="B2361" s="3">
-        <v>5</v>
+        <v>1462</v>
+      </c>
+      <c r="B2361" s="4">
+        <v>21</v>
       </c>
       <c r="C2361" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2361" s="1" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="E2361" s="1" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="F2361" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="G2361" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="H2361" s="0">
-        <v>10.00</v>
+        <v>8.90</v>
       </c>
       <c r="I2361" s="1">
-        <v>1400</v>
+        <v>1465</v>
       </c>
       <c r="J2361" s="1">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="K2361" s="1">
-        <v>325</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2362" spans="1:11">
       <c r="A2362" s="1">
-        <v>1540</v>
-      </c>
-      <c r="B2362" s="3">
-        <v>8</v>
+        <v>1462</v>
+      </c>
+      <c r="B2362" s="4">
+        <v>22</v>
       </c>
       <c r="C2362" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2362" s="1" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="E2362" s="1" t="s">
-        <v>944</v>
+        <v>1020</v>
       </c>
       <c r="F2362" s="0">
-        <v>8.00</v>
+        <v>8.90</v>
       </c>
       <c r="G2362" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="H2362" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="I2362" s="1">
-        <v>1400</v>
+        <v>1546</v>
       </c>
       <c r="J2362" s="1">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="K2362" s="1">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2363" spans="1:11">
       <c r="A2363" s="1">
-        <v>1541</v>
+        <v>1463</v>
       </c>
       <c r="B2363" s="4">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2363" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D2363" s="1" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="E2363" s="1" t="s">
-        <v>904</v>
+        <v>1022</v>
       </c>
       <c r="F2363" s="0">
-        <v>8.40</v>
+        <v>8.50</v>
       </c>
       <c r="G2363" s="0">
-        <v>8.90</v>
+        <v>8.50</v>
       </c>
       <c r="H2363" s="0">
-        <v>8.40</v>
+        <v>8.50</v>
       </c>
       <c r="I2363" s="1">
-        <v>1465</v>
+        <v>1481</v>
       </c>
       <c r="J2363" s="1">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="K2363" s="1">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2364" spans="1:11">
       <c r="A2364" s="1">
-        <v>1546</v>
+        <v>1463</v>
       </c>
       <c r="B2364" s="4">
         <v>20</v>
@@ -86007,10 +86166,10 @@
         <v>29</v>
       </c>
       <c r="D2364" s="1" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="E2364" s="1" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="F2364" s="0">
         <v>8.40</v>
@@ -86033,427 +86192,427 @@
     </row>
     <row r="2365" spans="1:11">
       <c r="A2365" s="1">
-        <v>1563</v>
+        <v>1463</v>
       </c>
       <c r="B2365" s="4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C2365" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D2365" s="1" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="E2365" s="1" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="F2365" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="G2365" s="0">
-        <v>10.00</v>
+        <v>8.40</v>
       </c>
       <c r="H2365" s="0">
-        <v>8.00</v>
+        <v>8.90</v>
       </c>
       <c r="I2365" s="1">
-        <v>1400</v>
+        <v>1465</v>
       </c>
       <c r="J2365" s="1">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="K2365" s="1">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2366" spans="1:11">
       <c r="A2366" s="1">
-        <v>1563</v>
+        <v>1463</v>
       </c>
       <c r="B2366" s="4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2366" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D2366" s="1" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="E2366" s="1" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="F2366" s="0">
-        <v>8.00</v>
+        <v>8.90</v>
       </c>
       <c r="G2366" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="H2366" s="0">
-        <v>10.00</v>
+        <v>8.40</v>
       </c>
       <c r="I2366" s="1">
-        <v>1400</v>
+        <v>1546</v>
       </c>
       <c r="J2366" s="1">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="K2366" s="1">
-        <v>325</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2367" spans="1:11">
       <c r="A2367" s="1">
-        <v>1563</v>
+        <v>1464</v>
       </c>
       <c r="B2367" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2367" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D2367" s="1" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="E2367" s="1" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="F2367" s="0">
-        <v>8.90</v>
+        <v>8.50</v>
       </c>
       <c r="G2367" s="0">
-        <v>8.90</v>
+        <v>8.50</v>
       </c>
       <c r="H2367" s="0">
-        <v>8.00</v>
+        <v>8.50</v>
       </c>
       <c r="I2367" s="1">
-        <v>1546</v>
+        <v>1481</v>
       </c>
       <c r="J2367" s="1">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="K2367" s="1">
-        <v>260</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2368" spans="1:11">
       <c r="A2368" s="1">
-        <v>1563</v>
+        <v>1464</v>
       </c>
       <c r="B2368" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2368" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D2368" s="1" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="E2368" s="1" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="F2368" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="G2368" s="0">
-        <v>8.00</v>
+        <v>8.90</v>
       </c>
       <c r="H2368" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="I2368" s="1">
-        <v>1546</v>
+        <v>1465</v>
       </c>
       <c r="J2368" s="1">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="K2368" s="1">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2369" spans="1:11">
       <c r="A2369" s="1">
-        <v>1564</v>
+        <v>1464</v>
       </c>
       <c r="B2369" s="4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2369" s="1" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D2369" s="1" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="E2369" s="1" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="F2369" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="G2369" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="H2369" s="0">
-        <v>8.00</v>
+        <v>8.90</v>
       </c>
       <c r="I2369" s="1">
-        <v>1546</v>
+        <v>1465</v>
       </c>
       <c r="J2369" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2369" s="1">
         <v>289</v>
-      </c>
-      <c r="K2369" s="1">
-        <v>260</v>
       </c>
     </row>
     <row r="2370" spans="1:11">
       <c r="A2370" s="1">
-        <v>1565</v>
+        <v>1464</v>
       </c>
       <c r="B2370" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2370" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D2370" s="1" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
       <c r="E2370" s="1" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="F2370" s="0">
-        <v>8.40</v>
+        <v>8.90</v>
       </c>
       <c r="G2370" s="0">
         <v>8.40</v>
       </c>
       <c r="H2370" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="I2370" s="1">
-        <v>1465</v>
+        <v>1546</v>
       </c>
       <c r="J2370" s="1">
         <v>273</v>
       </c>
       <c r="K2370" s="1">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2371" spans="1:11">
       <c r="A2371" s="1">
-        <v>1566</v>
+        <v>1465</v>
       </c>
       <c r="B2371" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2371" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2371" s="1" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="E2371" s="1" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="F2371" s="0">
-        <v>8.00</v>
+        <v>8.50</v>
       </c>
       <c r="G2371" s="0">
-        <v>8.00</v>
+        <v>8.50</v>
       </c>
       <c r="H2371" s="0">
-        <v>10.00</v>
+        <v>8.50</v>
       </c>
       <c r="I2371" s="1">
-        <v>1400</v>
+        <v>1481</v>
       </c>
       <c r="J2371" s="1">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="K2371" s="1">
-        <v>325</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2372" spans="1:11">
       <c r="A2372" s="1">
-        <v>1572</v>
+        <v>1465</v>
       </c>
       <c r="B2372" s="4">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2372" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2372" s="1" t="s">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="E2372" s="1" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="F2372" s="0">
-        <v>8.50</v>
+        <v>8.40</v>
       </c>
       <c r="G2372" s="0">
-        <v>8.50</v>
+        <v>8.90</v>
       </c>
       <c r="H2372" s="0">
-        <v>8.50</v>
+        <v>8.40</v>
       </c>
       <c r="I2372" s="1">
-        <v>1481</v>
+        <v>1465</v>
       </c>
       <c r="J2372" s="1">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="K2372" s="1">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2373" spans="1:11">
       <c r="A2373" s="1">
-        <v>1572</v>
+        <v>1465</v>
       </c>
       <c r="B2373" s="4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C2373" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2373" s="1" t="s">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="E2373" s="1" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="F2373" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="G2373" s="0">
-        <v>10.00</v>
+        <v>8.40</v>
       </c>
       <c r="H2373" s="0">
-        <v>8.00</v>
+        <v>8.90</v>
       </c>
       <c r="I2373" s="1">
-        <v>1400</v>
+        <v>1465</v>
       </c>
       <c r="J2373" s="1">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="K2373" s="1">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2374" spans="1:11">
       <c r="A2374" s="1">
-        <v>1572</v>
+        <v>1465</v>
       </c>
       <c r="B2374" s="4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2374" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2374" s="1" t="s">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="E2374" s="1" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="F2374" s="0">
-        <v>8.00</v>
+        <v>8.90</v>
       </c>
       <c r="G2374" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="H2374" s="0">
-        <v>10.00</v>
+        <v>8.40</v>
       </c>
       <c r="I2374" s="1">
-        <v>1400</v>
+        <v>1546</v>
       </c>
       <c r="J2374" s="1">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="K2374" s="1">
-        <v>325</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2375" spans="1:11">
       <c r="A2375" s="1">
-        <v>1572</v>
+        <v>1467</v>
       </c>
       <c r="B2375" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C2375" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D2375" s="1" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="E2375" s="1" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="F2375" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="G2375" s="0">
-        <v>8.00</v>
+        <v>10.00</v>
       </c>
       <c r="H2375" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="I2375" s="1">
-        <v>1546</v>
+        <v>1400</v>
       </c>
       <c r="J2375" s="1">
+        <v>325</v>
+      </c>
+      <c r="K2375" s="1">
         <v>260</v>
-      </c>
-      <c r="K2375" s="1">
-        <v>289</v>
       </c>
     </row>
     <row r="2376" spans="1:11">
       <c r="A2376" s="1">
-        <v>1572</v>
+        <v>1467</v>
       </c>
       <c r="B2376" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2376" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D2376" s="1" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="E2376" s="1" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="F2376" s="0">
-        <v>8.40</v>
+        <v>8.00</v>
       </c>
       <c r="G2376" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="H2376" s="0">
-        <v>8.40</v>
+        <v>10.00</v>
       </c>
       <c r="I2376" s="1">
-        <v>1465</v>
+        <v>1400</v>
       </c>
       <c r="J2376" s="1">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="K2376" s="1">
-        <v>273</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2377" spans="1:11">
       <c r="A2377" s="1">
-        <v>1573</v>
+        <v>1469</v>
       </c>
       <c r="B2377" s="4">
         <v>13</v>
@@ -86462,33 +86621,33 @@
         <v>29</v>
       </c>
       <c r="D2377" s="1" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="E2377" s="1" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="F2377" s="0">
-        <v>8.50</v>
+        <v>8.12</v>
       </c>
       <c r="G2377" s="0">
-        <v>8.50</v>
+        <v>8.75</v>
       </c>
       <c r="H2377" s="0">
-        <v>8.50</v>
+        <v>8.62</v>
       </c>
       <c r="I2377" s="1">
-        <v>1481</v>
+        <v>1420</v>
       </c>
       <c r="J2377" s="1">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="K2377" s="1">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2378" spans="1:11">
       <c r="A2378" s="1">
-        <v>1573</v>
+        <v>1469</v>
       </c>
       <c r="B2378" s="4">
         <v>14</v>
@@ -86497,445 +86656,445 @@
         <v>29</v>
       </c>
       <c r="D2378" s="1" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="E2378" s="1" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="F2378" s="0">
-        <v>8.00</v>
+        <v>7.62</v>
       </c>
       <c r="G2378" s="0">
-        <v>10.00</v>
+        <v>10.25</v>
       </c>
       <c r="H2378" s="0">
-        <v>8.00</v>
+        <v>8.12</v>
       </c>
       <c r="I2378" s="1">
-        <v>1400</v>
+        <v>1339</v>
       </c>
       <c r="J2378" s="1">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K2378" s="1">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2379" spans="1:11">
       <c r="A2379" s="1">
-        <v>1573</v>
+        <v>1469</v>
       </c>
       <c r="B2379" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2379" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2379" s="1" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="E2379" s="1" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="F2379" s="0">
-        <v>8.00</v>
+        <v>8.52</v>
       </c>
       <c r="G2379" s="0">
-        <v>8.00</v>
+        <v>9.15</v>
       </c>
       <c r="H2379" s="0">
-        <v>10.00</v>
+        <v>8.12</v>
       </c>
       <c r="I2379" s="1">
-        <v>1400</v>
+        <v>1485</v>
       </c>
       <c r="J2379" s="1">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="K2379" s="1">
-        <v>325</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2380" spans="1:11">
       <c r="A2380" s="1">
-        <v>1573</v>
+        <v>1469</v>
       </c>
       <c r="B2380" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2380" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2380" s="1" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="E2380" s="1" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="F2380" s="0">
-        <v>8.90</v>
+        <v>8.03</v>
       </c>
       <c r="G2380" s="0">
-        <v>8.00</v>
+        <v>9.15</v>
       </c>
       <c r="H2380" s="0">
-        <v>8.90</v>
+        <v>8.53</v>
       </c>
       <c r="I2380" s="1">
-        <v>1546</v>
+        <v>1404</v>
       </c>
       <c r="J2380" s="1">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="K2380" s="1">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2381" spans="1:11">
       <c r="A2381" s="1">
-        <v>1573</v>
+        <v>1469</v>
       </c>
       <c r="B2381" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2381" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2381" s="1" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="E2381" s="1" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="F2381" s="0">
-        <v>8.40</v>
+        <v>8.52</v>
       </c>
       <c r="G2381" s="0">
-        <v>8.90</v>
+        <v>8.65</v>
       </c>
       <c r="H2381" s="0">
-        <v>8.40</v>
+        <v>8.53</v>
       </c>
       <c r="I2381" s="1">
-        <v>1465</v>
+        <v>1485</v>
       </c>
       <c r="J2381" s="1">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K2381" s="1">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2382" spans="1:11">
       <c r="A2382" s="1">
-        <v>1578</v>
+        <v>1470</v>
       </c>
       <c r="B2382" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2382" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D2382" s="1" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="E2382" s="1" t="s">
-        <v>238</v>
+        <v>1032</v>
       </c>
       <c r="F2382" s="0">
-        <v>7.50</v>
+        <v>8.12</v>
       </c>
       <c r="G2382" s="0">
-        <v>11.00</v>
+        <v>8.75</v>
       </c>
       <c r="H2382" s="0">
-        <v>7.50</v>
+        <v>8.62</v>
       </c>
       <c r="I2382" s="1">
-        <v>1319</v>
+        <v>1420</v>
       </c>
       <c r="J2382" s="1">
-        <v>358</v>
+        <v>284</v>
       </c>
       <c r="K2382" s="1">
-        <v>244</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2383" spans="1:11">
       <c r="A2383" s="1">
-        <v>1578</v>
+        <v>1470</v>
       </c>
       <c r="B2383" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2383" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D2383" s="1" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="E2383" s="1" t="s">
-        <v>238</v>
+        <v>1032</v>
       </c>
       <c r="F2383" s="0">
-        <v>9.50</v>
+        <v>7.62</v>
       </c>
       <c r="G2383" s="0">
-        <v>9.00</v>
+        <v>10.25</v>
       </c>
       <c r="H2383" s="0">
-        <v>7.50</v>
+        <v>8.12</v>
       </c>
       <c r="I2383" s="1">
-        <v>1644</v>
+        <v>1339</v>
       </c>
       <c r="J2383" s="1">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="K2383" s="1">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2384" spans="1:11">
       <c r="A2384" s="1">
-        <v>1579</v>
+        <v>1470</v>
       </c>
       <c r="B2384" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2384" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D2384" s="1" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="E2384" s="1" t="s">
-        <v>238</v>
+        <v>1032</v>
       </c>
       <c r="F2384" s="0">
-        <v>7.50</v>
+        <v>8.52</v>
       </c>
       <c r="G2384" s="0">
-        <v>11.00</v>
+        <v>9.15</v>
       </c>
       <c r="H2384" s="0">
-        <v>7.50</v>
+        <v>8.12</v>
       </c>
       <c r="I2384" s="1">
-        <v>1319</v>
+        <v>1485</v>
       </c>
       <c r="J2384" s="1">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="K2384" s="1">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2385" spans="1:11">
       <c r="A2385" s="1">
-        <v>1579</v>
+        <v>1470</v>
       </c>
       <c r="B2385" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2385" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D2385" s="1" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="E2385" s="1" t="s">
-        <v>238</v>
+        <v>1032</v>
       </c>
       <c r="F2385" s="0">
-        <v>9.50</v>
+        <v>8.03</v>
       </c>
       <c r="G2385" s="0">
-        <v>9.00</v>
+        <v>9.15</v>
       </c>
       <c r="H2385" s="0">
-        <v>7.50</v>
+        <v>8.52</v>
       </c>
       <c r="I2385" s="1">
-        <v>1644</v>
+        <v>1404</v>
       </c>
       <c r="J2385" s="1">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K2385" s="1">
-        <v>244</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2386" spans="1:11">
       <c r="A2386" s="1">
-        <v>1582</v>
+        <v>1470</v>
       </c>
       <c r="B2386" s="4">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2386" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D2386" s="1" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="E2386" s="1" t="s">
-        <v>238</v>
+        <v>1032</v>
       </c>
       <c r="F2386" s="0">
-        <v>7.50</v>
+        <v>8.52</v>
       </c>
       <c r="G2386" s="0">
-        <v>11.00</v>
+        <v>8.65</v>
       </c>
       <c r="H2386" s="0">
-        <v>7.50</v>
+        <v>8.52</v>
       </c>
       <c r="I2386" s="1">
-        <v>1319</v>
+        <v>1485</v>
       </c>
       <c r="J2386" s="1">
-        <v>358</v>
+        <v>281</v>
       </c>
       <c r="K2386" s="1">
-        <v>244</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2387" spans="1:11">
       <c r="A2387" s="1">
-        <v>1582</v>
+        <v>1471</v>
       </c>
       <c r="B2387" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2387" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D2387" s="1" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="E2387" s="1" t="s">
-        <v>238</v>
+        <v>1034</v>
       </c>
       <c r="F2387" s="0">
-        <v>9.50</v>
+        <v>8.40</v>
       </c>
       <c r="G2387" s="0">
-        <v>9.00</v>
+        <v>8.90</v>
       </c>
       <c r="H2387" s="0">
-        <v>7.50</v>
+        <v>8.40</v>
       </c>
       <c r="I2387" s="1">
-        <v>1644</v>
+        <v>1465</v>
       </c>
       <c r="J2387" s="1">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K2387" s="1">
-        <v>244</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2388" spans="1:11">
       <c r="A2388" s="1">
-        <v>1583</v>
+        <v>1478</v>
       </c>
       <c r="B2388" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2388" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D2388" s="1" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="E2388" s="1" t="s">
-        <v>238</v>
+        <v>1036</v>
       </c>
       <c r="F2388" s="0">
-        <v>7.50</v>
+        <v>8.90</v>
       </c>
       <c r="G2388" s="0">
-        <v>11.00</v>
+        <v>8.90</v>
       </c>
       <c r="H2388" s="0">
-        <v>7.50</v>
+        <v>8.00</v>
       </c>
       <c r="I2388" s="1">
-        <v>1319</v>
+        <v>1546</v>
       </c>
       <c r="J2388" s="1">
-        <v>358</v>
+        <v>289</v>
       </c>
       <c r="K2388" s="1">
-        <v>244</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2389" spans="1:11">
       <c r="A2389" s="1">
-        <v>1583</v>
-      </c>
-      <c r="B2389" s="4">
-        <v>16</v>
+        <v>1495</v>
+      </c>
+      <c r="B2389" s="3">
+        <v>3</v>
       </c>
       <c r="C2389" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="D2389" s="1" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="E2389" s="1" t="s">
-        <v>238</v>
+        <v>1038</v>
       </c>
       <c r="F2389" s="0">
-        <v>9.50</v>
+        <v>8.25</v>
       </c>
       <c r="G2389" s="0">
+        <v>8.25</v>
+      </c>
+      <c r="H2389" s="0">
         <v>9.00</v>
       </c>
-      <c r="H2389" s="0">
-        <v>7.50</v>
-      </c>
       <c r="I2389" s="1">
-        <v>1644</v>
+        <v>1441</v>
       </c>
       <c r="J2389" s="1">
+        <v>268</v>
+      </c>
+      <c r="K2389" s="1">
         <v>293</v>
-      </c>
-      <c r="K2389" s="1">
-        <v>244</v>
       </c>
     </row>
     <row r="2390" spans="1:11">
       <c r="A2390" s="1">
-        <v>1587</v>
-      </c>
-      <c r="B2390" s="4">
-        <v>13</v>
+        <v>1495</v>
+      </c>
+      <c r="B2390" s="3">
+        <v>4</v>
       </c>
       <c r="C2390" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D2390" s="1" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="E2390" s="1" t="s">
-        <v>132</v>
+        <v>1038</v>
       </c>
       <c r="F2390" s="0">
-        <v>8.50</v>
+        <v>7.75</v>
       </c>
       <c r="G2390" s="0">
-        <v>8.50</v>
+        <v>9.75</v>
       </c>
       <c r="H2390" s="0">
         <v>8.50</v>
       </c>
       <c r="I2390" s="1">
-        <v>1481</v>
+        <v>1359</v>
       </c>
       <c r="J2390" s="1">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="K2390" s="1">
         <v>276</v>
@@ -86943,69 +87102,69 @@
     </row>
     <row r="2391" spans="1:11">
       <c r="A2391" s="1">
-        <v>1587</v>
-      </c>
-      <c r="B2391" s="4">
-        <v>18</v>
+        <v>1495</v>
+      </c>
+      <c r="B2391" s="3">
+        <v>5</v>
       </c>
       <c r="C2391" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D2391" s="1" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="E2391" s="1" t="s">
-        <v>132</v>
+        <v>1038</v>
       </c>
       <c r="F2391" s="0">
-        <v>8.00</v>
+        <v>7.75</v>
       </c>
       <c r="G2391" s="0">
-        <v>8.90</v>
+        <v>7.75</v>
       </c>
       <c r="H2391" s="0">
-        <v>8.90</v>
+        <v>10.50</v>
       </c>
       <c r="I2391" s="1">
-        <v>1400</v>
+        <v>1359</v>
       </c>
       <c r="J2391" s="1">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="K2391" s="1">
-        <v>289</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2392" spans="1:11">
       <c r="A2392" s="1">
-        <v>1587</v>
-      </c>
-      <c r="B2392" s="4">
-        <v>19</v>
+        <v>1495</v>
+      </c>
+      <c r="B2392" s="3">
+        <v>10</v>
       </c>
       <c r="C2392" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D2392" s="1" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="E2392" s="1" t="s">
-        <v>132</v>
+        <v>1038</v>
       </c>
       <c r="F2392" s="0">
-        <v>8.90</v>
+        <v>8.15</v>
       </c>
       <c r="G2392" s="0">
-        <v>8.00</v>
+        <v>8.65</v>
       </c>
       <c r="H2392" s="0">
         <v>8.90</v>
       </c>
       <c r="I2392" s="1">
-        <v>1546</v>
+        <v>1424</v>
       </c>
       <c r="J2392" s="1">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="K2392" s="1">
         <v>289</v>
@@ -87013,139 +87172,139 @@
     </row>
     <row r="2393" spans="1:11">
       <c r="A2393" s="1">
-        <v>1590</v>
-      </c>
-      <c r="B2393" s="4">
-        <v>13</v>
+        <v>1495</v>
+      </c>
+      <c r="B2393" s="3">
+        <v>11</v>
       </c>
       <c r="C2393" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D2393" s="1" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="E2393" s="1" t="s">
-        <v>142</v>
+        <v>1038</v>
       </c>
       <c r="F2393" s="0">
-        <v>8.50</v>
+        <v>8.15</v>
       </c>
       <c r="G2393" s="0">
-        <v>8.00</v>
+        <v>8.15</v>
       </c>
       <c r="H2393" s="0">
-        <v>9.00</v>
+        <v>9.40</v>
       </c>
       <c r="I2393" s="1">
-        <v>1481</v>
+        <v>1424</v>
       </c>
       <c r="J2393" s="1">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K2393" s="1">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2394" spans="1:11">
       <c r="A2394" s="1">
-        <v>1590</v>
+        <v>1515</v>
       </c>
       <c r="B2394" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2394" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D2394" s="1" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="E2394" s="1" t="s">
-        <v>142</v>
+        <v>1040</v>
       </c>
       <c r="F2394" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="G2394" s="0">
-        <v>7.50</v>
+        <v>8.90</v>
       </c>
       <c r="H2394" s="0">
-        <v>9.40</v>
+        <v>8.90</v>
       </c>
       <c r="I2394" s="1">
-        <v>1546</v>
+        <v>1400</v>
       </c>
       <c r="J2394" s="1">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="K2394" s="1">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2395" spans="1:11">
       <c r="A2395" s="1">
-        <v>1590</v>
+        <v>1516</v>
       </c>
       <c r="B2395" s="4">
         <v>20</v>
       </c>
       <c r="C2395" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D2395" s="1" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="E2395" s="1" t="s">
-        <v>142</v>
+        <v>383</v>
       </c>
       <c r="F2395" s="0">
         <v>8.40</v>
       </c>
       <c r="G2395" s="0">
-        <v>8.40</v>
+        <v>8.90</v>
       </c>
       <c r="H2395" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="I2395" s="1">
         <v>1465</v>
       </c>
       <c r="J2395" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2395" s="1">
         <v>273</v>
-      </c>
-      <c r="K2395" s="1">
-        <v>289</v>
       </c>
     </row>
     <row r="2396" spans="1:11">
       <c r="A2396" s="1">
-        <v>1590</v>
+        <v>1521</v>
       </c>
       <c r="B2396" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2396" s="1" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="D2396" s="1" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="E2396" s="1" t="s">
-        <v>142</v>
+        <v>1043</v>
       </c>
       <c r="F2396" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="G2396" s="0">
-        <v>7.90</v>
+        <v>8.90</v>
       </c>
       <c r="H2396" s="0">
         <v>8.90</v>
       </c>
       <c r="I2396" s="1">
-        <v>1546</v>
+        <v>1400</v>
       </c>
       <c r="J2396" s="1">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="K2396" s="1">
         <v>289</v>
@@ -87153,104 +87312,104 @@
     </row>
     <row r="2397" spans="1:11">
       <c r="A2397" s="1">
-        <v>1593</v>
-      </c>
-      <c r="B2397" s="4">
-        <v>13</v>
+        <v>1523</v>
+      </c>
+      <c r="B2397" s="3">
+        <v>5</v>
       </c>
       <c r="C2397" s="1" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="D2397" s="1" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="E2397" s="1" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="F2397" s="0">
-        <v>8.50</v>
+        <v>8.00</v>
       </c>
       <c r="G2397" s="0">
         <v>8.00</v>
       </c>
       <c r="H2397" s="0">
-        <v>9.00</v>
+        <v>10.00</v>
       </c>
       <c r="I2397" s="1">
-        <v>1481</v>
+        <v>1400</v>
       </c>
       <c r="J2397" s="1">
         <v>260</v>
       </c>
       <c r="K2397" s="1">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2398" spans="1:11">
       <c r="A2398" s="1">
-        <v>1593</v>
+        <v>1524</v>
       </c>
       <c r="B2398" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2398" s="1" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D2398" s="1" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E2398" s="1" t="s">
-        <v>142</v>
+        <v>1046</v>
       </c>
       <c r="F2398" s="0">
         <v>8.90</v>
       </c>
       <c r="G2398" s="0">
-        <v>7.50</v>
+        <v>8.90</v>
       </c>
       <c r="H2398" s="0">
-        <v>9.40</v>
+        <v>8.00</v>
       </c>
       <c r="I2398" s="1">
         <v>1546</v>
       </c>
       <c r="J2398" s="1">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="K2398" s="1">
-        <v>305</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2399" spans="1:11">
       <c r="A2399" s="1">
-        <v>1593</v>
+        <v>1524</v>
       </c>
       <c r="B2399" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2399" s="1" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D2399" s="1" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E2399" s="1" t="s">
-        <v>142</v>
+        <v>1046</v>
       </c>
       <c r="F2399" s="0">
-        <v>8.40</v>
+        <v>8.90</v>
       </c>
       <c r="G2399" s="0">
-        <v>8.40</v>
+        <v>8.00</v>
       </c>
       <c r="H2399" s="0">
         <v>8.90</v>
       </c>
       <c r="I2399" s="1">
-        <v>1465</v>
+        <v>1546</v>
       </c>
       <c r="J2399" s="1">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="K2399" s="1">
         <v>289</v>
@@ -87258,69 +87417,69 @@
     </row>
     <row r="2400" spans="1:11">
       <c r="A2400" s="1">
-        <v>1593</v>
+        <v>1530</v>
       </c>
       <c r="B2400" s="4">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C2400" s="1" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="D2400" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E2400" s="1" t="s">
-        <v>142</v>
+        <v>1048</v>
       </c>
       <c r="F2400" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="G2400" s="0">
-        <v>7.90</v>
+        <v>10.00</v>
       </c>
       <c r="H2400" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="I2400" s="1">
-        <v>1546</v>
+        <v>1400</v>
       </c>
       <c r="J2400" s="1">
-        <v>257</v>
+        <v>325</v>
       </c>
       <c r="K2400" s="1">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2401" spans="1:11">
       <c r="A2401" s="1">
-        <v>1594</v>
+        <v>1531</v>
       </c>
       <c r="B2401" s="4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2401" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2401" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E2401" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="E2401" s="1" t="s">
-        <v>1051</v>
-      </c>
       <c r="F2401" s="0">
-        <v>8.50</v>
+        <v>9.40</v>
       </c>
       <c r="G2401" s="0">
-        <v>8.50</v>
+        <v>7.90</v>
       </c>
       <c r="H2401" s="0">
         <v>8.50</v>
       </c>
       <c r="I2401" s="1">
-        <v>1481</v>
+        <v>1628</v>
       </c>
       <c r="J2401" s="1">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="K2401" s="1">
         <v>276</v>
@@ -87328,349 +87487,349 @@
     </row>
     <row r="2402" spans="1:11">
       <c r="A2402" s="1">
-        <v>1594</v>
-      </c>
-      <c r="B2402" s="4">
-        <v>16</v>
+        <v>1532</v>
+      </c>
+      <c r="B2402" s="3">
+        <v>8</v>
       </c>
       <c r="C2402" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D2402" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E2402" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="F2402" s="0">
-        <v>10.00</v>
+        <v>7.50</v>
       </c>
       <c r="G2402" s="0">
-        <v>8.00</v>
+        <v>9.90</v>
       </c>
       <c r="H2402" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="I2402" s="1">
-        <v>1725</v>
+        <v>1319</v>
       </c>
       <c r="J2402" s="1">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="K2402" s="1">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2403" spans="1:11">
       <c r="A2403" s="1">
-        <v>1594</v>
+        <v>1532</v>
       </c>
       <c r="B2403" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2403" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D2403" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E2403" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="F2403" s="0">
-        <v>8.90</v>
+        <v>7.50</v>
       </c>
       <c r="G2403" s="0">
-        <v>8.90</v>
+        <v>9.90</v>
       </c>
       <c r="H2403" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="I2403" s="1">
-        <v>1546</v>
+        <v>1319</v>
       </c>
       <c r="J2403" s="1">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="K2403" s="1">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2404" spans="1:11">
       <c r="A2404" s="1">
-        <v>1594</v>
-      </c>
-      <c r="B2404" s="4">
-        <v>19</v>
+        <v>1533</v>
+      </c>
+      <c r="B2404" s="3">
+        <v>8</v>
       </c>
       <c r="C2404" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D2404" s="1" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="E2404" s="1" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="F2404" s="0">
-        <v>8.90</v>
+        <v>8.50</v>
       </c>
       <c r="G2404" s="0">
-        <v>8.00</v>
+        <v>9.90</v>
       </c>
       <c r="H2404" s="0">
-        <v>8.90</v>
+        <v>7.40</v>
       </c>
       <c r="I2404" s="1">
-        <v>1546</v>
+        <v>1481</v>
       </c>
       <c r="J2404" s="1">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="K2404" s="1">
-        <v>289</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2405" spans="1:11">
       <c r="A2405" s="1">
-        <v>1595</v>
-      </c>
-      <c r="B2405" s="4">
-        <v>13</v>
+        <v>1537</v>
+      </c>
+      <c r="B2405" s="3">
+        <v>6</v>
       </c>
       <c r="C2405" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D2405" s="1" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="E2405" s="1" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="F2405" s="0">
-        <v>8.50</v>
+        <v>10.00</v>
       </c>
       <c r="G2405" s="0">
-        <v>8.50</v>
+        <v>8.00</v>
       </c>
       <c r="H2405" s="0">
-        <v>8.50</v>
+        <v>8.00</v>
       </c>
       <c r="I2405" s="1">
-        <v>1481</v>
+        <v>1725</v>
       </c>
       <c r="J2405" s="1">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="K2405" s="1">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2406" spans="1:11">
       <c r="A2406" s="1">
-        <v>1595</v>
-      </c>
-      <c r="B2406" s="4">
-        <v>16</v>
+        <v>1538</v>
+      </c>
+      <c r="B2406" s="3">
+        <v>5</v>
       </c>
       <c r="C2406" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D2406" s="1" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="E2406" s="1" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="F2406" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2406" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2406" s="0">
         <v>10.00</v>
       </c>
-      <c r="G2406" s="0">
-        <v>8.00</v>
-      </c>
-      <c r="H2406" s="0">
-        <v>8.00</v>
-      </c>
       <c r="I2406" s="1">
-        <v>1725</v>
+        <v>1400</v>
       </c>
       <c r="J2406" s="1">
         <v>260</v>
       </c>
       <c r="K2406" s="1">
-        <v>260</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2407" spans="1:11">
       <c r="A2407" s="1">
-        <v>1595</v>
-      </c>
-      <c r="B2407" s="4">
-        <v>17</v>
+        <v>1540</v>
+      </c>
+      <c r="B2407" s="3">
+        <v>8</v>
       </c>
       <c r="C2407" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D2407" s="1" t="s">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="E2407" s="1" t="s">
-        <v>1053</v>
+        <v>944</v>
       </c>
       <c r="F2407" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="G2407" s="0">
         <v>8.90</v>
       </c>
       <c r="H2407" s="0">
-        <v>8.00</v>
+        <v>8.90</v>
       </c>
       <c r="I2407" s="1">
-        <v>1546</v>
+        <v>1400</v>
       </c>
       <c r="J2407" s="1">
         <v>289</v>
       </c>
       <c r="K2407" s="1">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2408" spans="1:11">
       <c r="A2408" s="1">
-        <v>1595</v>
+        <v>1541</v>
       </c>
       <c r="B2408" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2408" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D2408" s="1" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="E2408" s="1" t="s">
-        <v>1053</v>
+        <v>904</v>
       </c>
       <c r="F2408" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="G2408" s="0">
-        <v>8.00</v>
+        <v>8.90</v>
       </c>
       <c r="H2408" s="0">
-        <v>8.90</v>
+        <v>8.40</v>
       </c>
       <c r="I2408" s="1">
-        <v>1546</v>
+        <v>1465</v>
       </c>
       <c r="J2408" s="1">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="K2408" s="1">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2409" spans="1:11">
       <c r="A2409" s="1">
-        <v>1596</v>
-      </c>
-      <c r="B2409" s="3">
-        <v>8</v>
+        <v>1542</v>
+      </c>
+      <c r="B2409" s="4">
+        <v>18</v>
       </c>
       <c r="C2409" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D2409" s="1" t="s">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="E2409" s="1" t="s">
-        <v>1024</v>
+        <v>1062</v>
       </c>
       <c r="F2409" s="0">
-        <v>7.50</v>
+        <v>8.00</v>
       </c>
       <c r="G2409" s="0">
-        <v>9.90</v>
+        <v>8.90</v>
       </c>
       <c r="H2409" s="0">
-        <v>8.40</v>
+        <v>8.90</v>
       </c>
       <c r="I2409" s="1">
-        <v>1319</v>
+        <v>1400</v>
       </c>
       <c r="J2409" s="1">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="K2409" s="1">
-        <v>273</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2410" spans="1:11">
       <c r="A2410" s="1">
-        <v>1596</v>
+        <v>1543</v>
       </c>
       <c r="B2410" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2410" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D2410" s="1" t="s">
-        <v>1054</v>
+        <v>981</v>
       </c>
       <c r="E2410" s="1" t="s">
-        <v>1024</v>
+        <v>1063</v>
       </c>
       <c r="F2410" s="0">
-        <v>7.50</v>
+        <v>9.90</v>
       </c>
       <c r="G2410" s="0">
-        <v>9.90</v>
+        <v>8.90</v>
       </c>
       <c r="H2410" s="0">
-        <v>8.40</v>
+        <v>7.00</v>
       </c>
       <c r="I2410" s="1">
-        <v>1319</v>
+        <v>1709</v>
       </c>
       <c r="J2410" s="1">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="K2410" s="1">
-        <v>273</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2411" spans="1:11">
       <c r="A2411" s="1">
-        <v>1597</v>
-      </c>
-      <c r="B2411" s="3">
-        <v>8</v>
+        <v>1544</v>
+      </c>
+      <c r="B2411" s="4">
+        <v>20</v>
       </c>
       <c r="C2411" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D2411" s="1" t="s">
-        <v>1055</v>
+        <v>1064</v>
       </c>
       <c r="E2411" s="1" t="s">
-        <v>1024</v>
+        <v>1065</v>
       </c>
       <c r="F2411" s="0">
-        <v>7.50</v>
+        <v>8.40</v>
       </c>
       <c r="G2411" s="0">
-        <v>9.90</v>
+        <v>8.90</v>
       </c>
       <c r="H2411" s="0">
         <v>8.40</v>
       </c>
       <c r="I2411" s="1">
-        <v>1319</v>
+        <v>1465</v>
       </c>
       <c r="J2411" s="1">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="K2411" s="1">
         <v>273</v>
@@ -87678,139 +87837,139 @@
     </row>
     <row r="2412" spans="1:11">
       <c r="A2412" s="1">
-        <v>1597</v>
+        <v>1545</v>
       </c>
       <c r="B2412" s="4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2412" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2412" s="1" t="s">
-        <v>1055</v>
+        <v>1066</v>
       </c>
       <c r="E2412" s="1" t="s">
-        <v>1024</v>
+        <v>1067</v>
       </c>
       <c r="F2412" s="0">
-        <v>7.50</v>
+        <v>8.50</v>
       </c>
       <c r="G2412" s="0">
-        <v>9.90</v>
+        <v>8.50</v>
       </c>
       <c r="H2412" s="0">
-        <v>8.40</v>
+        <v>8.50</v>
       </c>
       <c r="I2412" s="1">
-        <v>1319</v>
+        <v>1481</v>
       </c>
       <c r="J2412" s="1">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="K2412" s="1">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2413" spans="1:11">
       <c r="A2413" s="1">
-        <v>1599</v>
+        <v>1545</v>
       </c>
       <c r="B2413" s="4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C2413" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2413" s="1" t="s">
-        <v>1056</v>
+        <v>1066</v>
       </c>
       <c r="E2413" s="1" t="s">
-        <v>167</v>
+        <v>1067</v>
       </c>
       <c r="F2413" s="0">
-        <v>9.50</v>
+        <v>8.40</v>
       </c>
       <c r="G2413" s="0">
-        <v>8.00</v>
+        <v>8.40</v>
       </c>
       <c r="H2413" s="0">
-        <v>8.00</v>
+        <v>8.90</v>
       </c>
       <c r="I2413" s="1">
-        <v>1644</v>
+        <v>1465</v>
       </c>
       <c r="J2413" s="1">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="K2413" s="1">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2414" spans="1:11">
       <c r="A2414" s="1">
-        <v>1599</v>
+        <v>1545</v>
       </c>
       <c r="B2414" s="4">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C2414" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2414" s="1" t="s">
-        <v>1056</v>
+        <v>1066</v>
       </c>
       <c r="E2414" s="1" t="s">
-        <v>167</v>
+        <v>1067</v>
       </c>
       <c r="F2414" s="0">
-        <v>11.00</v>
+        <v>8.90</v>
       </c>
       <c r="G2414" s="0">
-        <v>7.50</v>
+        <v>8.40</v>
       </c>
       <c r="H2414" s="0">
-        <v>7.50</v>
+        <v>8.40</v>
       </c>
       <c r="I2414" s="1">
-        <v>1888</v>
+        <v>1546</v>
       </c>
       <c r="J2414" s="1">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="K2414" s="1">
-        <v>244</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2415" spans="1:11">
       <c r="A2415" s="1">
-        <v>1599</v>
+        <v>1546</v>
       </c>
       <c r="B2415" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2415" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2415" s="1" t="s">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="E2415" s="1" t="s">
-        <v>167</v>
+        <v>1069</v>
       </c>
       <c r="F2415" s="0">
-        <v>9.90</v>
+        <v>8.40</v>
       </c>
       <c r="G2415" s="0">
-        <v>7.50</v>
+        <v>8.90</v>
       </c>
       <c r="H2415" s="0">
         <v>8.40</v>
       </c>
       <c r="I2415" s="1">
-        <v>1709</v>
+        <v>1465</v>
       </c>
       <c r="J2415" s="1">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="K2415" s="1">
         <v>273</v>
@@ -87818,141 +87977,2486 @@
     </row>
     <row r="2416" spans="1:11">
       <c r="A2416" s="1">
-        <v>1602</v>
-      </c>
-      <c r="B2416" s="3">
-        <v>8</v>
+        <v>1563</v>
+      </c>
+      <c r="B2416" s="4">
+        <v>14</v>
       </c>
       <c r="C2416" s="1" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D2416" s="1" t="s">
-        <v>1057</v>
+        <v>1070</v>
       </c>
       <c r="E2416" s="1" t="s">
-        <v>1058</v>
+        <v>1071</v>
       </c>
       <c r="F2416" s="0">
-        <v>6.75</v>
+        <v>8.00</v>
       </c>
       <c r="G2416" s="0">
-        <v>10.15</v>
+        <v>10.00</v>
       </c>
       <c r="H2416" s="0">
-        <v>8.90</v>
+        <v>8.00</v>
       </c>
       <c r="I2416" s="1">
-        <v>1197</v>
+        <v>1400</v>
       </c>
       <c r="J2416" s="1">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K2416" s="1">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2417" spans="1:11">
       <c r="A2417" s="1">
-        <v>1615</v>
+        <v>1563</v>
       </c>
       <c r="B2417" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2417" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D2417" s="1" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="E2417" s="1" t="s">
-        <v>450</v>
+        <v>1071</v>
       </c>
       <c r="F2417" s="0">
         <v>8.00</v>
       </c>
       <c r="G2417" s="0">
-        <v>8.50</v>
+        <v>8.00</v>
       </c>
       <c r="H2417" s="0">
-        <v>9.00</v>
+        <v>10.00</v>
       </c>
       <c r="I2417" s="1">
         <v>1400</v>
       </c>
       <c r="J2417" s="1">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="K2417" s="1">
-        <v>293</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2418" spans="1:11">
       <c r="A2418" s="1">
-        <v>1615</v>
+        <v>1563</v>
       </c>
       <c r="B2418" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2418" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D2418" s="1" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="E2418" s="1" t="s">
-        <v>450</v>
+        <v>1071</v>
       </c>
       <c r="F2418" s="0">
-        <v>7.50</v>
+        <v>8.90</v>
       </c>
       <c r="G2418" s="0">
-        <v>8.00</v>
+        <v>8.90</v>
       </c>
       <c r="H2418" s="0">
-        <v>10.50</v>
+        <v>8.00</v>
       </c>
       <c r="I2418" s="1">
-        <v>1319</v>
+        <v>1546</v>
       </c>
       <c r="J2418" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2418" s="1">
         <v>260</v>
-      </c>
-      <c r="K2418" s="1">
-        <v>341</v>
       </c>
     </row>
     <row r="2419" spans="1:11">
       <c r="A2419" s="1">
+        <v>1563</v>
+      </c>
+      <c r="B2419" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2419" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2419" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E2419" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F2419" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2419" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2419" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2419" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2419" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2419" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:11">
+      <c r="A2420" s="1">
+        <v>1564</v>
+      </c>
+      <c r="B2420" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2420" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2420" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E2420" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F2420" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2420" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2420" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2420" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2420" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2420" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:11">
+      <c r="A2421" s="1">
+        <v>1565</v>
+      </c>
+      <c r="B2421" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2421" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2421" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E2421" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F2421" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2421" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="H2421" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2421" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2421" s="1">
+        <v>325</v>
+      </c>
+      <c r="K2421" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:11">
+      <c r="A2422" s="1">
+        <v>1565</v>
+      </c>
+      <c r="B2422" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2422" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2422" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E2422" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F2422" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2422" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2422" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="I2422" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2422" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2422" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:11">
+      <c r="A2423" s="1">
+        <v>1565</v>
+      </c>
+      <c r="B2423" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2423" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2423" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E2423" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F2423" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2423" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2423" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2423" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2423" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2423" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:11">
+      <c r="A2424" s="1">
+        <v>1565</v>
+      </c>
+      <c r="B2424" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2424" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2424" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E2424" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F2424" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2424" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2424" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2424" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2424" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2424" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:11">
+      <c r="A2425" s="1">
+        <v>1565</v>
+      </c>
+      <c r="B2425" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2425" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2425" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E2425" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F2425" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2425" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2425" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2425" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2425" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2425" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:11">
+      <c r="A2426" s="1">
+        <v>1566</v>
+      </c>
+      <c r="B2426" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2426" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2426" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E2426" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F2426" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2426" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2426" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="I2426" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2426" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2426" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:11">
+      <c r="A2427" s="1">
+        <v>1567</v>
+      </c>
+      <c r="B2427" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2427" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2427" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E2427" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="F2427" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2427" s="0">
+        <v>9.40</v>
+      </c>
+      <c r="H2427" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2427" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2427" s="1">
+        <v>306</v>
+      </c>
+      <c r="K2427" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:11">
+      <c r="A2428" s="1">
+        <v>1568</v>
+      </c>
+      <c r="B2428" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2428" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2428" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E2428" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F2428" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2428" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2428" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2428" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2428" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2428" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:11">
+      <c r="A2429" s="1">
+        <v>1569</v>
+      </c>
+      <c r="B2429" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2429" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2429" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E2429" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F2429" s="0">
+        <v>10.65</v>
+      </c>
+      <c r="G2429" s="0">
+        <v>8.15</v>
+      </c>
+      <c r="H2429" s="0">
+        <v>7.00</v>
+      </c>
+      <c r="I2429" s="1">
+        <v>1831</v>
+      </c>
+      <c r="J2429" s="1">
+        <v>265</v>
+      </c>
+      <c r="K2429" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:11">
+      <c r="A2430" s="1">
+        <v>1570</v>
+      </c>
+      <c r="B2430" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2430" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2430" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E2430" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F2430" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2430" s="0">
+        <v>9.90</v>
+      </c>
+      <c r="H2430" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2430" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2430" s="1">
+        <v>322</v>
+      </c>
+      <c r="K2430" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:11">
+      <c r="A2431" s="1">
+        <v>1570</v>
+      </c>
+      <c r="B2431" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2431" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2431" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E2431" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F2431" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2431" s="0">
+        <v>9.90</v>
+      </c>
+      <c r="H2431" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2431" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2431" s="1">
+        <v>322</v>
+      </c>
+      <c r="K2431" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:11">
+      <c r="A2432" s="1">
+        <v>1571</v>
+      </c>
+      <c r="B2432" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2432" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2432" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E2432" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F2432" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2432" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2432" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2432" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2432" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2432" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:11">
+      <c r="A2433" s="1">
+        <v>1571</v>
+      </c>
+      <c r="B2433" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2433" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2433" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E2433" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F2433" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="G2433" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2433" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2433" s="1">
+        <v>1725</v>
+      </c>
+      <c r="J2433" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2433" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:11">
+      <c r="A2434" s="1">
+        <v>1571</v>
+      </c>
+      <c r="B2434" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2434" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2434" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E2434" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F2434" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2434" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2434" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2434" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2434" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2434" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:11">
+      <c r="A2435" s="1">
+        <v>1571</v>
+      </c>
+      <c r="B2435" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2435" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2435" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E2435" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F2435" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2435" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2435" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2435" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2435" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2435" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:11">
+      <c r="A2436" s="1">
+        <v>1572</v>
+      </c>
+      <c r="B2436" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2436" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2436" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E2436" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F2436" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2436" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2436" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2436" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2436" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2436" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:11">
+      <c r="A2437" s="1">
+        <v>1572</v>
+      </c>
+      <c r="B2437" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2437" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2437" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E2437" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F2437" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2437" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="H2437" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2437" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2437" s="1">
+        <v>325</v>
+      </c>
+      <c r="K2437" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:11">
+      <c r="A2438" s="1">
+        <v>1572</v>
+      </c>
+      <c r="B2438" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2438" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2438" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E2438" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F2438" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2438" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2438" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="I2438" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2438" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2438" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:11">
+      <c r="A2439" s="1">
+        <v>1572</v>
+      </c>
+      <c r="B2439" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2439" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2439" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E2439" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F2439" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2439" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2439" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2439" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2439" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2439" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:11">
+      <c r="A2440" s="1">
+        <v>1572</v>
+      </c>
+      <c r="B2440" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2440" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2440" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E2440" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F2440" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2440" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2440" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2440" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2440" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2440" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:11">
+      <c r="A2441" s="1">
+        <v>1573</v>
+      </c>
+      <c r="B2441" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2441" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2441" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E2441" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F2441" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2441" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2441" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2441" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2441" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2441" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:11">
+      <c r="A2442" s="1">
+        <v>1573</v>
+      </c>
+      <c r="B2442" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2442" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2442" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E2442" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F2442" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2442" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="H2442" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2442" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2442" s="1">
+        <v>325</v>
+      </c>
+      <c r="K2442" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:11">
+      <c r="A2443" s="1">
+        <v>1573</v>
+      </c>
+      <c r="B2443" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2443" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2443" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E2443" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F2443" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2443" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2443" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="I2443" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2443" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2443" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:11">
+      <c r="A2444" s="1">
+        <v>1573</v>
+      </c>
+      <c r="B2444" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2444" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2444" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E2444" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F2444" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2444" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2444" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2444" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2444" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2444" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:11">
+      <c r="A2445" s="1">
+        <v>1573</v>
+      </c>
+      <c r="B2445" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2445" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2445" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E2445" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F2445" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2445" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2445" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2445" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2445" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2445" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:11">
+      <c r="A2446" s="1">
+        <v>1574</v>
+      </c>
+      <c r="B2446" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2446" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2446" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E2446" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F2446" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2446" s="0">
+        <v>10.40</v>
+      </c>
+      <c r="H2446" s="0">
+        <v>7.90</v>
+      </c>
+      <c r="I2446" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2446" s="1">
+        <v>338</v>
+      </c>
+      <c r="K2446" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:11">
+      <c r="A2447" s="1">
+        <v>1576</v>
+      </c>
+      <c r="B2447" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2447" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2447" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2447" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F2447" s="0">
+        <v>6.75</v>
+      </c>
+      <c r="G2447" s="0">
+        <v>11.25</v>
+      </c>
+      <c r="H2447" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2447" s="1">
+        <v>1197</v>
+      </c>
+      <c r="J2447" s="1">
+        <v>366</v>
+      </c>
+      <c r="K2447" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:11">
+      <c r="A2448" s="1">
+        <v>1578</v>
+      </c>
+      <c r="B2448" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2448" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2448" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E2448" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2448" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2448" s="0">
+        <v>11.00</v>
+      </c>
+      <c r="H2448" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2448" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2448" s="1">
+        <v>358</v>
+      </c>
+      <c r="K2448" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:11">
+      <c r="A2449" s="1">
+        <v>1578</v>
+      </c>
+      <c r="B2449" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2449" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2449" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E2449" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2449" s="0">
+        <v>9.50</v>
+      </c>
+      <c r="G2449" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="H2449" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2449" s="1">
+        <v>1644</v>
+      </c>
+      <c r="J2449" s="1">
+        <v>293</v>
+      </c>
+      <c r="K2449" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:11">
+      <c r="A2450" s="1">
+        <v>1579</v>
+      </c>
+      <c r="B2450" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2450" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2450" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E2450" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2450" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2450" s="0">
+        <v>11.00</v>
+      </c>
+      <c r="H2450" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2450" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2450" s="1">
+        <v>358</v>
+      </c>
+      <c r="K2450" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:11">
+      <c r="A2451" s="1">
+        <v>1579</v>
+      </c>
+      <c r="B2451" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2451" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2451" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E2451" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2451" s="0">
+        <v>9.50</v>
+      </c>
+      <c r="G2451" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="H2451" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2451" s="1">
+        <v>1644</v>
+      </c>
+      <c r="J2451" s="1">
+        <v>293</v>
+      </c>
+      <c r="K2451" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:11">
+      <c r="A2452" s="1">
+        <v>1582</v>
+      </c>
+      <c r="B2452" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2452" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2452" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E2452" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2452" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2452" s="0">
+        <v>11.00</v>
+      </c>
+      <c r="H2452" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2452" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2452" s="1">
+        <v>358</v>
+      </c>
+      <c r="K2452" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:11">
+      <c r="A2453" s="1">
+        <v>1582</v>
+      </c>
+      <c r="B2453" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2453" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2453" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E2453" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2453" s="0">
+        <v>9.50</v>
+      </c>
+      <c r="G2453" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="H2453" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2453" s="1">
+        <v>1644</v>
+      </c>
+      <c r="J2453" s="1">
+        <v>293</v>
+      </c>
+      <c r="K2453" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:11">
+      <c r="A2454" s="1">
+        <v>1583</v>
+      </c>
+      <c r="B2454" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2454" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2454" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E2454" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2454" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2454" s="0">
+        <v>11.00</v>
+      </c>
+      <c r="H2454" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2454" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2454" s="1">
+        <v>358</v>
+      </c>
+      <c r="K2454" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:11">
+      <c r="A2455" s="1">
+        <v>1583</v>
+      </c>
+      <c r="B2455" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2455" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2455" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E2455" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2455" s="0">
+        <v>9.50</v>
+      </c>
+      <c r="G2455" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="H2455" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2455" s="1">
+        <v>1644</v>
+      </c>
+      <c r="J2455" s="1">
+        <v>293</v>
+      </c>
+      <c r="K2455" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:11">
+      <c r="A2456" s="1">
+        <v>1587</v>
+      </c>
+      <c r="B2456" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2456" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2456" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E2456" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2456" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2456" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2456" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2456" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2456" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2456" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:11">
+      <c r="A2457" s="1">
+        <v>1587</v>
+      </c>
+      <c r="B2457" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2457" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2457" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E2457" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2457" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2457" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2457" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2457" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2457" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2457" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:11">
+      <c r="A2458" s="1">
+        <v>1587</v>
+      </c>
+      <c r="B2458" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2458" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2458" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E2458" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2458" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2458" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2458" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2458" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2458" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2458" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:11">
+      <c r="A2459" s="1">
+        <v>1590</v>
+      </c>
+      <c r="B2459" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2459" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2459" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E2459" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2459" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2459" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2459" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="I2459" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2459" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2459" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:11">
+      <c r="A2460" s="1">
+        <v>1590</v>
+      </c>
+      <c r="B2460" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2460" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2460" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E2460" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2460" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2460" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="H2460" s="0">
+        <v>9.40</v>
+      </c>
+      <c r="I2460" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2460" s="1">
+        <v>244</v>
+      </c>
+      <c r="K2460" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:11">
+      <c r="A2461" s="1">
+        <v>1590</v>
+      </c>
+      <c r="B2461" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2461" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2461" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E2461" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2461" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2461" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2461" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2461" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2461" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2461" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:11">
+      <c r="A2462" s="1">
+        <v>1590</v>
+      </c>
+      <c r="B2462" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2462" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2462" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E2462" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2462" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2462" s="0">
+        <v>7.90</v>
+      </c>
+      <c r="H2462" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2462" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2462" s="1">
+        <v>257</v>
+      </c>
+      <c r="K2462" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:11">
+      <c r="A2463" s="1">
+        <v>1593</v>
+      </c>
+      <c r="B2463" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2463" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2463" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E2463" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2463" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2463" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2463" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="I2463" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2463" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2463" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:11">
+      <c r="A2464" s="1">
+        <v>1593</v>
+      </c>
+      <c r="B2464" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2464" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2464" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E2464" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2464" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2464" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="H2464" s="0">
+        <v>9.40</v>
+      </c>
+      <c r="I2464" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2464" s="1">
+        <v>244</v>
+      </c>
+      <c r="K2464" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:11">
+      <c r="A2465" s="1">
+        <v>1593</v>
+      </c>
+      <c r="B2465" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2465" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2465" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E2465" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2465" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2465" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="H2465" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2465" s="1">
+        <v>1465</v>
+      </c>
+      <c r="J2465" s="1">
+        <v>273</v>
+      </c>
+      <c r="K2465" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:11">
+      <c r="A2466" s="1">
+        <v>1593</v>
+      </c>
+      <c r="B2466" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2466" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2466" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E2466" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2466" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2466" s="0">
+        <v>7.90</v>
+      </c>
+      <c r="H2466" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2466" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2466" s="1">
+        <v>257</v>
+      </c>
+      <c r="K2466" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:11">
+      <c r="A2467" s="1">
+        <v>1594</v>
+      </c>
+      <c r="B2467" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2467" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2467" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E2467" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F2467" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2467" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2467" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2467" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2467" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2467" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:11">
+      <c r="A2468" s="1">
+        <v>1594</v>
+      </c>
+      <c r="B2468" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2468" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2468" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E2468" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F2468" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="G2468" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2468" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2468" s="1">
+        <v>1725</v>
+      </c>
+      <c r="J2468" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2468" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:11">
+      <c r="A2469" s="1">
+        <v>1594</v>
+      </c>
+      <c r="B2469" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2469" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2469" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E2469" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F2469" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2469" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2469" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2469" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2469" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2469" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:11">
+      <c r="A2470" s="1">
+        <v>1594</v>
+      </c>
+      <c r="B2470" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2470" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2470" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E2470" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F2470" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2470" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2470" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2470" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2470" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2470" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:11">
+      <c r="A2471" s="1">
+        <v>1595</v>
+      </c>
+      <c r="B2471" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2471" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2471" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E2471" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F2471" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="G2471" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2471" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2471" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J2471" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2471" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:11">
+      <c r="A2472" s="1">
+        <v>1595</v>
+      </c>
+      <c r="B2472" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2472" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2472" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E2472" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F2472" s="0">
+        <v>10.00</v>
+      </c>
+      <c r="G2472" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2472" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2472" s="1">
+        <v>1725</v>
+      </c>
+      <c r="J2472" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2472" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:11">
+      <c r="A2473" s="1">
+        <v>1595</v>
+      </c>
+      <c r="B2473" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2473" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2473" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E2473" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F2473" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2473" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2473" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2473" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2473" s="1">
+        <v>289</v>
+      </c>
+      <c r="K2473" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:11">
+      <c r="A2474" s="1">
+        <v>1595</v>
+      </c>
+      <c r="B2474" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2474" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2474" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E2474" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F2474" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="G2474" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2474" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2474" s="1">
+        <v>1546</v>
+      </c>
+      <c r="J2474" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2474" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:11">
+      <c r="A2475" s="1">
+        <v>1596</v>
+      </c>
+      <c r="B2475" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2475" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2475" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E2475" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F2475" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2475" s="0">
+        <v>9.90</v>
+      </c>
+      <c r="H2475" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2475" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2475" s="1">
+        <v>322</v>
+      </c>
+      <c r="K2475" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:11">
+      <c r="A2476" s="1">
+        <v>1596</v>
+      </c>
+      <c r="B2476" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2476" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2476" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E2476" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F2476" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2476" s="0">
+        <v>9.90</v>
+      </c>
+      <c r="H2476" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2476" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2476" s="1">
+        <v>322</v>
+      </c>
+      <c r="K2476" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:11">
+      <c r="A2477" s="1">
+        <v>1597</v>
+      </c>
+      <c r="B2477" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2477" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E2477" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F2477" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2477" s="0">
+        <v>9.90</v>
+      </c>
+      <c r="H2477" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2477" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2477" s="1">
+        <v>322</v>
+      </c>
+      <c r="K2477" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:11">
+      <c r="A2478" s="1">
+        <v>1597</v>
+      </c>
+      <c r="B2478" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2478" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2478" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E2478" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F2478" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2478" s="0">
+        <v>9.90</v>
+      </c>
+      <c r="H2478" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2478" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2478" s="1">
+        <v>322</v>
+      </c>
+      <c r="K2478" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:11">
+      <c r="A2479" s="1">
+        <v>1599</v>
+      </c>
+      <c r="B2479" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2479" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2479" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E2479" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2479" s="0">
+        <v>9.50</v>
+      </c>
+      <c r="G2479" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2479" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2479" s="1">
+        <v>1644</v>
+      </c>
+      <c r="J2479" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2479" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:11">
+      <c r="A2480" s="1">
+        <v>1599</v>
+      </c>
+      <c r="B2480" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2480" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2480" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E2480" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2480" s="0">
+        <v>11.00</v>
+      </c>
+      <c r="G2480" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="H2480" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="I2480" s="1">
+        <v>1888</v>
+      </c>
+      <c r="J2480" s="1">
+        <v>244</v>
+      </c>
+      <c r="K2480" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:11">
+      <c r="A2481" s="1">
+        <v>1599</v>
+      </c>
+      <c r="B2481" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2481" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2481" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E2481" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2481" s="0">
+        <v>9.90</v>
+      </c>
+      <c r="G2481" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="H2481" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="I2481" s="1">
+        <v>1709</v>
+      </c>
+      <c r="J2481" s="1">
+        <v>244</v>
+      </c>
+      <c r="K2481" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:11">
+      <c r="A2482" s="1">
+        <v>1601</v>
+      </c>
+      <c r="B2482" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2482" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2482" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E2482" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F2482" s="0">
+        <v>6.75</v>
+      </c>
+      <c r="G2482" s="0">
+        <v>11.25</v>
+      </c>
+      <c r="H2482" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="I2482" s="1">
+        <v>1197</v>
+      </c>
+      <c r="J2482" s="1">
+        <v>366</v>
+      </c>
+      <c r="K2482" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:11">
+      <c r="A2483" s="1">
+        <v>1602</v>
+      </c>
+      <c r="B2483" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2483" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2483" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E2483" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F2483" s="0">
+        <v>6.75</v>
+      </c>
+      <c r="G2483" s="0">
+        <v>10.15</v>
+      </c>
+      <c r="H2483" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="I2483" s="1">
+        <v>1197</v>
+      </c>
+      <c r="J2483" s="1">
+        <v>330</v>
+      </c>
+      <c r="K2483" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:11">
+      <c r="A2484" s="1">
         <v>1615</v>
       </c>
-      <c r="B2419" s="4">
+      <c r="B2484" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2484" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2484" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E2484" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2484" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="G2484" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="H2484" s="0">
+        <v>9.00</v>
+      </c>
+      <c r="I2484" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J2484" s="1">
+        <v>276</v>
+      </c>
+      <c r="K2484" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:11">
+      <c r="A2485" s="1">
+        <v>1615</v>
+      </c>
+      <c r="B2485" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2485" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2485" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E2485" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2485" s="0">
+        <v>7.50</v>
+      </c>
+      <c r="G2485" s="0">
+        <v>8.00</v>
+      </c>
+      <c r="H2485" s="0">
+        <v>10.50</v>
+      </c>
+      <c r="I2485" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J2485" s="1">
+        <v>260</v>
+      </c>
+      <c r="K2485" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:11">
+      <c r="A2486" s="1">
+        <v>1615</v>
+      </c>
+      <c r="B2486" s="4">
         <v>17</v>
       </c>
-      <c r="C2419" s="1" t="s">
+      <c r="C2486" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2419" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E2419" s="1" t="s">
+      <c r="D2486" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E2486" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F2419" s="0">
-        <v>8.40</v>
-      </c>
-      <c r="G2419" s="0">
-        <v>8.90</v>
-      </c>
-      <c r="H2419" s="0">
-        <v>8.50</v>
-      </c>
-      <c r="I2419" s="1">
+      <c r="F2486" s="0">
+        <v>8.40</v>
+      </c>
+      <c r="G2486" s="0">
+        <v>8.90</v>
+      </c>
+      <c r="H2486" s="0">
+        <v>8.50</v>
+      </c>
+      <c r="I2486" s="1">
         <v>1465</v>
       </c>
-      <c r="J2419" s="1">
+      <c r="J2486" s="1">
         <v>289</v>
       </c>
-      <c r="K2419" s="1">
+      <c r="K2486" s="1">
         <v>276</v>
       </c>
     </row>
